--- a/GRADIENT DESCENT - FINDING MINIMUM OF A FUNCTION.xlsx
+++ b/GRADIENT DESCENT - FINDING MINIMUM OF A FUNCTION.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="811"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="811" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="7" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="102">
   <si>
     <t>f(x) = ax2 + bx + c</t>
   </si>
@@ -314,6 +314,21 @@
   <si>
     <t>Haw to create simple neuron  with optimization algorithm "Gradient Descen"t and "beckpropagation" alogorithm feom scratch;</t>
   </si>
+  <si>
+    <t>to see with diferent biases??</t>
+  </si>
+  <si>
+    <t>b:1,-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> inversed?</t>
+  </si>
+  <si>
+    <t>outputs</t>
+  </si>
+  <si>
+    <t>function landscape</t>
+  </si>
 </sst>
 </file>
 
@@ -351,7 +366,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="20">
+  <fills count="21">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -463,6 +478,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF9966FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -624,7 +645,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -710,6 +731,11 @@
     <xf numFmtId="0" fontId="0" fillId="18" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -747,7 +773,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1048,11 +1073,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="173059456"/>
-        <c:axId val="173618304"/>
+        <c:axId val="145753984"/>
+        <c:axId val="145755520"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="173059456"/>
+        <c:axId val="145753984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1061,7 +1086,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="173618304"/>
+        <c:crossAx val="145755520"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1069,7 +1094,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="173618304"/>
+        <c:axId val="145755520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1080,14 +1105,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="173059456"/>
+        <c:crossAx val="145753984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1117,7 +1141,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1418,11 +1441,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="173659648"/>
-        <c:axId val="173661184"/>
+        <c:axId val="146153472"/>
+        <c:axId val="146155008"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="173659648"/>
+        <c:axId val="146153472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1431,7 +1454,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="173661184"/>
+        <c:crossAx val="146155008"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1439,7 +1462,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="173661184"/>
+        <c:axId val="146155008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1450,14 +1473,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="173659648"/>
+        <c:crossAx val="146153472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1978,11 +2000,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="174405504"/>
-        <c:axId val="174407040"/>
+        <c:axId val="146821504"/>
+        <c:axId val="146823040"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="174405504"/>
+        <c:axId val="146821504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1992,12 +2014,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="174407040"/>
+        <c:crossAx val="146823040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="174407040"/>
+        <c:axId val="146823040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2008,14 +2030,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="174405504"/>
+        <c:crossAx val="146821504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2212,15 +2233,7 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:strRef>
-              <c:f>'PARABOLIC-with_big alpha'!$M$9</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>gradient</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>function output</c:v>
           </c:tx>
           <c:xVal>
             <c:numRef>
@@ -2516,7 +2529,7 @@
           <c:idx val="2"/>
           <c:order val="2"/>
           <c:tx>
-            <c:v>function</c:v>
+            <c:v>function landscape</c:v>
           </c:tx>
           <c:xVal>
             <c:numRef>
@@ -2792,11 +2805,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="173871488"/>
-        <c:axId val="173873024"/>
+        <c:axId val="146549376"/>
+        <c:axId val="146555264"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="173871488"/>
+        <c:axId val="146549376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2806,12 +2819,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="173873024"/>
+        <c:crossAx val="146555264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="173873024"/>
+        <c:axId val="146555264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2822,7 +2835,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="173871488"/>
+        <c:crossAx val="146549376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3280,11 +3293,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="172716032"/>
-        <c:axId val="172717568"/>
+        <c:axId val="145104896"/>
+        <c:axId val="145106432"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="172716032"/>
+        <c:axId val="145104896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3294,12 +3307,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="172717568"/>
+        <c:crossAx val="145106432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="172717568"/>
+        <c:axId val="145106432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3310,14 +3323,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="172716032"/>
+        <c:crossAx val="145104896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3629,11 +3641,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="173974656"/>
-        <c:axId val="173976192"/>
+        <c:axId val="146357632"/>
+        <c:axId val="146392192"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="173974656"/>
+        <c:axId val="146357632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3643,12 +3655,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="173976192"/>
+        <c:crossAx val="146392192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="173976192"/>
+        <c:axId val="146392192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3659,14 +3671,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="173974656"/>
+        <c:crossAx val="146357632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3714,127 +3725,127 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.82499999999999996</c:v>
+                  <c:v>0.72499999999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.671875</c:v>
+                  <c:v>0.484375</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.53789062499999996</c:v>
+                  <c:v>0.27382812499999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.42065429687499994</c:v>
+                  <c:v>8.9599609374999972E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.31807250976562496</c:v>
+                  <c:v>-7.160034179687505E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.22831344604492182</c:v>
+                  <c:v>-0.21265029907226568</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.1497742652893066</c:v>
+                  <c:v>-0.3360690116882325</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8.1052482128143269E-2</c:v>
+                  <c:v>-0.44406038522720348</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.0920921862125352E-2</c:v>
+                  <c:v>-0.53855283707380308</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-3.1694193370640326E-2</c:v>
+                  <c:v>-0.62123373243957769</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-7.7732419199310288E-2</c:v>
+                  <c:v>-0.69357951588463052</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-0.11801586679939652</c:v>
+                  <c:v>-0.7568820763990517</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-0.15326388344947195</c:v>
+                  <c:v>-0.81227181684917027</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-0.18410589801828797</c:v>
+                  <c:v>-0.86073783974302398</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-0.21109266076600197</c:v>
+                  <c:v>-0.90314560977514602</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-0.23470607817025174</c:v>
+                  <c:v>-0.94025240855325276</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-0.25536781839897027</c:v>
+                  <c:v>-0.9727208574840962</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-0.273446841099099</c:v>
+                  <c:v>-1.0011307502985842</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-0.2892659859617116</c:v>
+                  <c:v>-1.0259894065112611</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-0.30310773771649763</c:v>
+                  <c:v>-1.0477407306973534</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-0.31521927050193543</c:v>
+                  <c:v>-1.0667731393601843</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-0.32581686168919349</c:v>
+                  <c:v>-1.0834264969401612</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-0.3350897539780443</c:v>
+                  <c:v>-1.097998184822641</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-0.34320353473078874</c:v>
+                  <c:v>-1.1107484117198108</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-0.35030309288944012</c:v>
+                  <c:v>-1.1219048602548345</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-0.35651520627826011</c:v>
+                  <c:v>-1.1316667527229802</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>-0.36195080549347758</c:v>
+                  <c:v>-1.1402084086326076</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>-0.36670695480679288</c:v>
+                  <c:v>-1.1476823575535318</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>-0.37086858545594376</c:v>
+                  <c:v>-1.1542220628593403</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>-0.37451001227395075</c:v>
+                  <c:v>-1.1599443050019227</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>-0.37769626073970691</c:v>
+                  <c:v>-1.1649512668766824</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>-0.38048422814724353</c:v>
+                  <c:v>-1.1693323585170972</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>-0.3829236996288381</c:v>
+                  <c:v>-1.1731658137024601</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>-0.38505823717523335</c:v>
+                  <c:v>-1.1765200869896526</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>-0.3869259575283292</c:v>
+                  <c:v>-1.1794550761159461</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>-0.38856021283728803</c:v>
+                  <c:v>-1.182023191601453</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>-0.38999018623262705</c:v>
+                  <c:v>-1.1842702926512714</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>-0.39124141295354864</c:v>
+                  <c:v>-1.1862365060698625</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>-0.39233623633435505</c:v>
+                  <c:v>-1.1879569428111298</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>-0.39329420679256066</c:v>
+                  <c:v>-1.1894623249597387</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>-0.3941324309434906</c:v>
+                  <c:v>-1.1907795343397714</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3846,130 +3857,130 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="42"/>
                 <c:pt idx="0">
-                  <c:v>0.5</c:v>
+                  <c:v>1.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.41249999999999998</c:v>
+                  <c:v>1.3625</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.3359375</c:v>
+                  <c:v>1.2421875</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.26894531249999998</c:v>
+                  <c:v>1.1369140625</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.21032714843749997</c:v>
+                  <c:v>1.0447998046875</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.15903625488281248</c:v>
+                  <c:v>0.96419982910156243</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.11415672302246091</c:v>
+                  <c:v>0.89367485046386719</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7.4887132644653298E-2</c:v>
+                  <c:v>0.83196549415588372</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.0526241064071634E-2</c:v>
+                  <c:v>0.77796980738639832</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.0460460931062676E-2</c:v>
+                  <c:v>0.73072358146309846</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-1.5847096685320163E-2</c:v>
+                  <c:v>0.68938313378021121</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-3.8866209599655144E-2</c:v>
+                  <c:v>0.65321024205768474</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-5.9007933399698259E-2</c:v>
+                  <c:v>0.62155896180047421</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-7.6631941724735975E-2</c:v>
+                  <c:v>0.59386409157541487</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-9.2052949009143986E-2</c:v>
+                  <c:v>0.56963108012848807</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-0.10554633038300099</c:v>
+                  <c:v>0.54842719511242699</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-0.11735303908512587</c:v>
+                  <c:v>0.52987379572337368</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-0.12768390919948513</c:v>
+                  <c:v>0.5136395712579519</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-0.1367234205495495</c:v>
+                  <c:v>0.49943462485070789</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-0.1446329929808558</c:v>
+                  <c:v>0.48700529674436943</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-0.15155386885824881</c:v>
+                  <c:v>0.4761296346513233</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-0.15760963525096772</c:v>
+                  <c:v>0.46661343031990787</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-0.16290843084459675</c:v>
+                  <c:v>0.45828675152991938</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-0.16754487698902215</c:v>
+                  <c:v>0.4510009075886795</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-0.17160176736539437</c:v>
+                  <c:v>0.44462579414009462</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-0.17515154644472006</c:v>
+                  <c:v>0.43904756987258275</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-0.17825760313913006</c:v>
+                  <c:v>0.43416662363850989</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>-0.18097540274673879</c:v>
+                  <c:v>0.42989579568369618</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>-0.18335347740339644</c:v>
+                  <c:v>0.42615882122323412</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>-0.18543429272797188</c:v>
+                  <c:v>0.42288896857032987</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>-0.18725500613697538</c:v>
+                  <c:v>0.42002784749903865</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>-0.18884813036985346</c:v>
+                  <c:v>0.41752436656165881</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>-0.19024211407362177</c:v>
+                  <c:v>0.41533382074145142</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>-0.19146184981441905</c:v>
+                  <c:v>0.41341709314876995</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>-0.19252911858761668</c:v>
+                  <c:v>0.4117399565051737</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>-0.1934629787641646</c:v>
+                  <c:v>0.41027246194202693</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>-0.19428010641864402</c:v>
+                  <c:v>0.40898840419927351</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>-0.19499509311631352</c:v>
+                  <c:v>0.40786485367436431</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>-0.19562070647677432</c:v>
+                  <c:v>0.40688174696506874</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>-0.19616811816717752</c:v>
+                  <c:v>0.40602152859443508</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>-0.19664710339628033</c:v>
+                  <c:v>0.40526883752013065</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>-0.1970662154717453</c:v>
+                  <c:v>0.40461023283011432</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3989,127 +4000,127 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.825</c:v>
+                  <c:v>1.7250000000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.671875</c:v>
+                  <c:v>1.484375</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.537890625</c:v>
+                  <c:v>1.2738281250000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.420654296875</c:v>
+                  <c:v>1.089599609375</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.318072509765625</c:v>
+                  <c:v>0.92839965820312498</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.2283134460449219</c:v>
+                  <c:v>0.78734970092773438</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.1497742652893066</c:v>
+                  <c:v>0.66393098831176756</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.0810524821281433</c:v>
+                  <c:v>0.55593961477279663</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.0209209218621254</c:v>
+                  <c:v>0.46144716292619703</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.96830580662935972</c:v>
+                  <c:v>0.37876626756042242</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.92226758080068971</c:v>
+                  <c:v>0.3064204841153696</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.88198413320060354</c:v>
+                  <c:v>0.24311792360094839</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.84673611655052805</c:v>
+                  <c:v>0.18772818315082984</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.81589410198171208</c:v>
+                  <c:v>0.1392621602569761</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.78890733923399803</c:v>
+                  <c:v>9.6854390224854092E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.76529392182974831</c:v>
+                  <c:v>5.9747591446747329E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.74463218160102973</c:v>
+                  <c:v>2.7279142515903909E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.726553158900901</c:v>
+                  <c:v>-1.1307502985840739E-3</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.7107340140382884</c:v>
+                  <c:v>-2.5989406511261064E-2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.69689226228350232</c:v>
+                  <c:v>-4.774073069735342E-2</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.68478072949806457</c:v>
+                  <c:v>-6.6773139360184253E-2</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.67418313831080645</c:v>
+                  <c:v>-8.3426496940161216E-2</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.66491024602195559</c:v>
+                  <c:v>-9.7998184822641055E-2</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.65679646526921109</c:v>
+                  <c:v>-0.11074841171981092</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.64969690711055972</c:v>
+                  <c:v>-0.12190486025483457</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.64348479372173972</c:v>
+                  <c:v>-0.13166675272298026</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.63804919450652231</c:v>
+                  <c:v>-0.14020840863260772</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.63329304519320706</c:v>
+                  <c:v>-0.14768235755353176</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.62913141454405619</c:v>
+                  <c:v>-0.15422206285934029</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.62548998772604913</c:v>
+                  <c:v>-0.15994430500192275</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.62230373926029303</c:v>
+                  <c:v>-0.16495126687668241</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.61951577185275641</c:v>
+                  <c:v>-0.1693323585170971</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.6170763003711619</c:v>
+                  <c:v>-0.17316581370245998</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.61494176282476665</c:v>
+                  <c:v>-0.17652008698965249</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.61307404247167085</c:v>
+                  <c:v>-0.17945507611594594</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.61143978716271197</c:v>
+                  <c:v>-0.18202319160145269</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.61000981376737295</c:v>
+                  <c:v>-0.18427029265127109</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.60875858704645136</c:v>
+                  <c:v>-0.1862365060698622</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.6076637636656449</c:v>
+                  <c:v>-0.1879569428111294</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.60670579320743934</c:v>
+                  <c:v>-0.18946232495973822</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.6058675690565094</c:v>
+                  <c:v>-0.19077953433977093</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4121,130 +4132,130 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="42"/>
                 <c:pt idx="0">
-                  <c:v>4</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.65</c:v>
+                  <c:v>4.45</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.34375</c:v>
+                  <c:v>3.96875</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.0757812499999999</c:v>
+                  <c:v>3.5476562500000002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.84130859375</c:v>
+                  <c:v>3.17919921875</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.6361450195312499</c:v>
+                  <c:v>2.8567993164062502</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.4566268920898438</c:v>
+                  <c:v>2.5746994018554687</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.2995485305786132</c:v>
+                  <c:v>2.3278619766235353</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.1621049642562866</c:v>
+                  <c:v>2.1118792295455933</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.0418418437242507</c:v>
+                  <c:v>1.9228943258523941</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.9366116132587194</c:v>
+                  <c:v>1.7575325351208448</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.8445351616013794</c:v>
+                  <c:v>1.6128409682307392</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.7639682664012071</c:v>
+                  <c:v>1.4862358472018968</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.6934722331010561</c:v>
+                  <c:v>1.3754563663016597</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.6317882039634242</c:v>
+                  <c:v>1.2785243205139523</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.5778146784679961</c:v>
+                  <c:v>1.1937087804497082</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.5305878436594966</c:v>
+                  <c:v>1.1194951828934947</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.4892643632020595</c:v>
+                  <c:v>1.0545582850318078</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.453106317801802</c:v>
+                  <c:v>0.99773849940283188</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.4214680280765768</c:v>
+                  <c:v>0.94802118697747784</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.3937845245670046</c:v>
+                  <c:v>0.90451853860529319</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1.3695614589961291</c:v>
+                  <c:v>0.86645372127963149</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1.3483662766216129</c:v>
+                  <c:v>0.83314700611967751</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1.3298204920439112</c:v>
+                  <c:v>0.80400363035471789</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1.3135929305384222</c:v>
+                  <c:v>0.77850317656037815</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1.2993938142211194</c:v>
+                  <c:v>0.7561902794903308</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1.2869695874434794</c:v>
+                  <c:v>0.73666649455403954</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1.2760983890130446</c:v>
+                  <c:v>0.7195831827347845</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1.2665860903864141</c:v>
+                  <c:v>0.70463528489293648</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1.2582628290881124</c:v>
+                  <c:v>0.69155587428131948</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1.2509799754520983</c:v>
+                  <c:v>0.6801113899961545</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1.2446074785205861</c:v>
+                  <c:v>0.67009746624663524</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1.2390315437055128</c:v>
+                  <c:v>0.66133528296580579</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1.2341526007423238</c:v>
+                  <c:v>0.65366837259508004</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1.2298835256495333</c:v>
+                  <c:v>0.64695982602069502</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>1.2261480849433417</c:v>
+                  <c:v>0.64108984776810818</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>1.2228795743254239</c:v>
+                  <c:v>0.63595361679709461</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>1.2200196275347459</c:v>
+                  <c:v>0.63145941469745781</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>1.2175171740929027</c:v>
+                  <c:v>0.62752698786027561</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1.2153275273312898</c:v>
+                  <c:v>0.6240861143777412</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>1.2134115864148787</c:v>
+                  <c:v>0.6210753500805235</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>1.2117351381130188</c:v>
+                  <c:v>0.61844093132045819</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4261,130 +4272,130 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="42"/>
                 <c:pt idx="0">
-                  <c:v>4.5</c:v>
+                  <c:v>6.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.0625</c:v>
+                  <c:v>5.8125</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.6796875</c:v>
+                  <c:v>5.2109375</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.3447265625</c:v>
+                  <c:v>4.6845703125</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.0516357421875</c:v>
+                  <c:v>4.2239990234375</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.7951812744140625</c:v>
+                  <c:v>3.8209991455078125</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.5707836151123047</c:v>
+                  <c:v>3.4683742523193359</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.3744356632232666</c:v>
+                  <c:v>3.1598274707794189</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.2026312053203583</c:v>
+                  <c:v>2.8898490369319916</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.0523023046553135</c:v>
+                  <c:v>2.6536179073154926</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.9207645165733993</c:v>
+                  <c:v>2.4469156689010561</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.8056689520017244</c:v>
+                  <c:v>2.266051210288424</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.7049603330015088</c:v>
+                  <c:v>2.107794809002371</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.6168402913763202</c:v>
+                  <c:v>1.9693204578770747</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.5397352549542802</c:v>
+                  <c:v>1.8481554006424403</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.4722683480849952</c:v>
+                  <c:v>1.7421359755621353</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.4132348045743708</c:v>
+                  <c:v>1.6493689786168684</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.3615804540025742</c:v>
+                  <c:v>1.5681978562897596</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.3163828972522524</c:v>
+                  <c:v>1.4971731242535398</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.2768350350957209</c:v>
+                  <c:v>1.4350264837218472</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.2422306557087559</c:v>
+                  <c:v>1.3806481732566165</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1.2119518237451614</c:v>
+                  <c:v>1.3330671515995394</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1.1854578457770162</c:v>
+                  <c:v>1.2914337576495969</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1.162275615054889</c:v>
+                  <c:v>1.2550045379433974</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1.1419911631730277</c:v>
+                  <c:v>1.2231289707004729</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1.1242422677763995</c:v>
+                  <c:v>1.1952378493629134</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1.1087119843043494</c:v>
+                  <c:v>1.1708331181925495</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1.0951229862663059</c:v>
+                  <c:v>1.1494789784184807</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1.0832326129830177</c:v>
+                  <c:v>1.1307941061161706</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1.0728285363601404</c:v>
+                  <c:v>1.1144448428516494</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1.0637249693151229</c:v>
+                  <c:v>1.1001392374951933</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1.0557593481507326</c:v>
+                  <c:v>1.0876218328082941</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1.0487894296318911</c:v>
+                  <c:v>1.0766691037072573</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1.0426907509279046</c:v>
+                  <c:v>1.06708546574385</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1.0373544070619167</c:v>
+                  <c:v>1.0586997825258688</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>1.0326851061791771</c:v>
+                  <c:v>1.051362309710135</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>1.0285994679067798</c:v>
+                  <c:v>1.044942020996368</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>1.0250245344184323</c:v>
+                  <c:v>1.0393242683718222</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>1.0218964676161284</c:v>
+                  <c:v>1.0344087348253443</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1.0191594091641123</c:v>
+                  <c:v>1.0301076429721763</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>1.0167644830185982</c:v>
+                  <c:v>1.026344187600654</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>1.0146689226412735</c:v>
+                  <c:v>1.0230511641505724</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4396,130 +4407,130 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="42"/>
                 <c:pt idx="0">
-                  <c:v>4.5</c:v>
+                  <c:v>6.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.0625</c:v>
+                  <c:v>5.8125</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.6796875</c:v>
+                  <c:v>5.2109375</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.3447265625</c:v>
+                  <c:v>4.6845703125</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.0516357421875</c:v>
+                  <c:v>4.2239990234375</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.7951812744140625</c:v>
+                  <c:v>3.8209991455078125</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.5707836151123047</c:v>
+                  <c:v>3.4683742523193359</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.3744356632232666</c:v>
+                  <c:v>3.1598274707794189</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.2026312053203583</c:v>
+                  <c:v>2.8898490369319916</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.0523023046553135</c:v>
+                  <c:v>2.6536179073154926</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.9207645165733993</c:v>
+                  <c:v>2.4469156689010561</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.8056689520017244</c:v>
+                  <c:v>2.266051210288424</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.7049603330015088</c:v>
+                  <c:v>2.107794809002371</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.6168402913763202</c:v>
+                  <c:v>1.9693204578770747</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.5397352549542802</c:v>
+                  <c:v>1.8481554006424403</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.4722683480849952</c:v>
+                  <c:v>1.7421359755621353</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.4132348045743708</c:v>
+                  <c:v>1.6493689786168684</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.3615804540025742</c:v>
+                  <c:v>1.5681978562897596</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.3163828972522524</c:v>
+                  <c:v>1.4971731242535398</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.2768350350957209</c:v>
+                  <c:v>1.4350264837218472</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.2422306557087559</c:v>
+                  <c:v>1.3806481732566165</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1.2119518237451614</c:v>
+                  <c:v>1.3330671515995394</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1.1854578457770162</c:v>
+                  <c:v>1.2914337576495969</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1.162275615054889</c:v>
+                  <c:v>1.2550045379433974</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1.1419911631730277</c:v>
+                  <c:v>1.2231289707004729</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1.1242422677763995</c:v>
+                  <c:v>1.1952378493629134</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1.1087119843043494</c:v>
+                  <c:v>1.1708331181925495</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1.0951229862663059</c:v>
+                  <c:v>1.1494789784184807</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1.0832326129830177</c:v>
+                  <c:v>1.1307941061161706</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1.0728285363601404</c:v>
+                  <c:v>1.1144448428516494</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1.0637249693151229</c:v>
+                  <c:v>1.1001392374951933</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1.0557593481507326</c:v>
+                  <c:v>1.0876218328082941</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1.0487894296318911</c:v>
+                  <c:v>1.0766691037072573</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1.0426907509279046</c:v>
+                  <c:v>1.06708546574385</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1.0373544070619167</c:v>
+                  <c:v>1.0586997825258688</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>1.0326851061791771</c:v>
+                  <c:v>1.051362309710135</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>1.0285994679067798</c:v>
+                  <c:v>1.044942020996368</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>1.0250245344184323</c:v>
+                  <c:v>1.0393242683718222</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>1.0218964676161284</c:v>
+                  <c:v>1.0344087348253443</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1.0191594091641123</c:v>
+                  <c:v>1.0301076429721763</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>1.0167644830185982</c:v>
+                  <c:v>1.026344187600654</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>1.0146689226412735</c:v>
+                  <c:v>1.0230511641505724</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4534,11 +4545,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="174089728"/>
-        <c:axId val="174091264"/>
+        <c:axId val="146765312"/>
+        <c:axId val="146766848"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="174089728"/>
+        <c:axId val="146765312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4548,12 +4559,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="174091264"/>
+        <c:crossAx val="146766848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="174091264"/>
+        <c:axId val="146766848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4564,14 +4575,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="174089728"/>
+        <c:crossAx val="146765312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -5304,16 +5314,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>36</xdr:col>
-      <xdr:colOff>391336</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>92480</xdr:rowOff>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>208396</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>88595</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>37</xdr:col>
-      <xdr:colOff>200836</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>182678</xdr:rowOff>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>129091</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>126695</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5321,9 +5331,9 @@
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm rot="13983188">
-          <a:off x="16545087" y="8119529"/>
-          <a:ext cx="3900198" cy="419100"/>
+        <a:xfrm rot="13411953">
+          <a:off x="17048596" y="8851595"/>
+          <a:ext cx="2968695" cy="419100"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst/>
@@ -5648,7 +5658,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C5:Q37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
@@ -5827,7 +5837,7 @@
   <dimension ref="C2:U48"/>
   <sheetViews>
     <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="P11" sqref="P11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6769,7 +6779,7 @@
   <dimension ref="B2:N55"/>
   <sheetViews>
     <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="S29" sqref="S29"/>
+      <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7330,7 +7340,7 @@
         <v>9.5001354077758293</v>
       </c>
       <c r="J25" s="1"/>
-      <c r="K25" s="9">
+      <c r="K25" s="14">
         <f t="shared" si="0"/>
         <v>3.2912948920319929E-2</v>
       </c>
@@ -7362,7 +7372,7 @@
         <v>9.5000487467992976</v>
       </c>
       <c r="J26" s="1"/>
-      <c r="K26" s="9">
+      <c r="K26" s="14">
         <f t="shared" si="0"/>
         <v>1.9747769352191913E-2</v>
       </c>
@@ -7394,7 +7404,7 @@
         <v>9.5000175488477474</v>
       </c>
       <c r="J27" s="1"/>
-      <c r="K27" s="9">
+      <c r="K27" s="14">
         <f t="shared" si="0"/>
         <v>1.1848661611315148E-2</v>
       </c>
@@ -7426,7 +7436,7 @@
         <v>9.5000063175851892</v>
       </c>
       <c r="J28" s="1"/>
-      <c r="K28" s="9">
+      <c r="K28" s="14">
         <f t="shared" si="0"/>
         <v>7.109196966789133E-3</v>
       </c>
@@ -7458,7 +7468,7 @@
         <v>9.5000022743306687</v>
       </c>
       <c r="J29" s="1"/>
-      <c r="K29" s="9">
+      <c r="K29" s="14">
         <f t="shared" si="0"/>
         <v>4.2655181800734798E-3</v>
       </c>
@@ -7490,7 +7500,7 @@
         <v>9.500000818759041</v>
       </c>
       <c r="J30" s="1"/>
-      <c r="K30" s="9">
+      <c r="K30" s="14">
         <f t="shared" si="0"/>
         <v>2.5593109080441767E-3</v>
       </c>
@@ -7522,7 +7532,7 @@
         <v>9.5000002947532547</v>
       </c>
       <c r="J31" s="1"/>
-      <c r="K31" s="9">
+      <c r="K31" s="14">
         <f t="shared" si="0"/>
         <v>1.5355865448265504E-3</v>
       </c>
@@ -7554,7 +7564,7 @@
         <v>9.5000001061111714</v>
       </c>
       <c r="J32" s="1"/>
-      <c r="K32" s="9">
+      <c r="K32" s="14">
         <f t="shared" si="0"/>
         <v>9.2135192689601908E-4</v>
       </c>
@@ -7586,7 +7596,7 @@
         <v>9.5000000382000209</v>
       </c>
       <c r="J33" s="1"/>
-      <c r="K33" s="9">
+      <c r="K33" s="14">
         <f t="shared" si="0"/>
         <v>5.5281115613770027E-4</v>
       </c>
@@ -7618,7 +7628,7 @@
         <v>9.5000000137520075</v>
       </c>
       <c r="J34" s="1"/>
-      <c r="K34" s="9">
+      <c r="K34" s="14">
         <f t="shared" si="0"/>
         <v>3.3168669368266457E-4</v>
       </c>
@@ -7650,7 +7660,7 @@
         <v>9.5000000049507225</v>
       </c>
       <c r="J35" s="1"/>
-      <c r="K35" s="9">
+      <c r="K35" s="14">
         <f t="shared" si="0"/>
         <v>1.9901201620964315E-4</v>
       </c>
@@ -7682,7 +7692,7 @@
         <v>9.5000000017822597</v>
       </c>
       <c r="J36" s="1"/>
-      <c r="K36" s="9">
+      <c r="K36" s="14">
         <f t="shared" si="0"/>
         <v>1.1940720972569707E-4</v>
       </c>
@@ -7714,7 +7724,7 @@
         <v>9.500000000641613</v>
       </c>
       <c r="J37" s="1"/>
-      <c r="K37" s="9">
+      <c r="K37" s="14">
         <f t="shared" si="0"/>
         <v>7.1644325835507061E-5</v>
       </c>
@@ -7746,7 +7756,7 @@
         <v>9.5000000002309815</v>
       </c>
       <c r="J38" s="1"/>
-      <c r="K38" s="9">
+      <c r="K38" s="14">
         <f t="shared" si="0"/>
         <v>4.2986595501393055E-5</v>
       </c>
@@ -7778,7 +7788,7 @@
         <v>9.500000000083153</v>
       </c>
       <c r="J39" s="1"/>
-      <c r="K39" s="9">
+      <c r="K39" s="14">
         <f t="shared" si="0"/>
         <v>2.5791957300791424E-5</v>
       </c>
@@ -7810,7 +7820,7 @@
         <v>9.5000000000299352</v>
       </c>
       <c r="J40" s="1"/>
-      <c r="K40" s="9">
+      <c r="K40" s="14">
         <f t="shared" si="0"/>
         <v>1.5475174380386036E-5</v>
       </c>
@@ -7842,7 +7852,7 @@
         <v>9.5000000000107772</v>
       </c>
       <c r="J41" s="1"/>
-      <c r="K41" s="9">
+      <c r="K41" s="14">
         <f t="shared" si="0"/>
         <v>9.2851046282760308E-6</v>
       </c>
@@ -7874,7 +7884,7 @@
         <v>9.5000000000038796</v>
       </c>
       <c r="J42" s="1"/>
-      <c r="K42" s="9">
+      <c r="K42" s="14">
         <f t="shared" ref="K42:K55" si="9">2*G$4*G42+I$4</f>
         <v>5.5710627768768006E-6</v>
       </c>
@@ -7906,7 +7916,7 @@
         <v>9.5000000000013962</v>
       </c>
       <c r="J43" s="1"/>
-      <c r="K43" s="9">
+      <c r="K43" s="14">
         <f t="shared" si="9"/>
         <v>3.3426376662148982E-6</v>
       </c>
@@ -7938,7 +7948,7 @@
         <v>9.5000000000005027</v>
       </c>
       <c r="J44" s="1"/>
-      <c r="K44" s="9">
+      <c r="K44" s="14">
         <f t="shared" si="9"/>
         <v>2.0055825997733479E-6</v>
       </c>
@@ -7970,7 +7980,7 @@
         <v>9.5000000000001812</v>
       </c>
       <c r="J45" s="1"/>
-      <c r="K45" s="9">
+      <c r="K45" s="14">
         <f t="shared" si="9"/>
         <v>1.2033495597751909E-6</v>
       </c>
@@ -8002,7 +8012,7 @@
         <v>9.5000000000000657</v>
       </c>
       <c r="J46" s="1"/>
-      <c r="K46" s="9">
+      <c r="K46" s="14">
         <f t="shared" si="9"/>
         <v>7.2200973577629668E-7</v>
       </c>
@@ -8034,7 +8044,7 @@
         <v>9.5000000000000231</v>
       </c>
       <c r="J47" s="1"/>
-      <c r="K47" s="9">
+      <c r="K47" s="14">
         <f t="shared" si="9"/>
         <v>4.3320584142136909E-7</v>
       </c>
@@ -8066,7 +8076,7 @@
         <v>9.5000000000000089</v>
       </c>
       <c r="J48" s="1"/>
-      <c r="K48" s="9">
+      <c r="K48" s="14">
         <f t="shared" si="9"/>
         <v>2.5992350494163929E-7</v>
       </c>
@@ -8098,7 +8108,7 @@
         <v>9.5000000000000036</v>
       </c>
       <c r="J49" s="1"/>
-      <c r="K49" s="9">
+      <c r="K49" s="14">
         <f t="shared" si="9"/>
         <v>1.5595410296498358E-7</v>
       </c>
@@ -8130,7 +8140,7 @@
         <v>9.5000000000000018</v>
       </c>
       <c r="J50" s="1"/>
-      <c r="K50" s="9">
+      <c r="K50" s="14">
         <f t="shared" si="9"/>
         <v>9.3572461778990146E-8</v>
       </c>
@@ -8162,7 +8172,7 @@
         <v>9.5</v>
       </c>
       <c r="J51" s="1"/>
-      <c r="K51" s="9">
+      <c r="K51" s="14">
         <f t="shared" si="9"/>
         <v>5.6143476978576246E-8</v>
       </c>
@@ -8194,7 +8204,7 @@
         <v>9.5</v>
       </c>
       <c r="J52" s="1"/>
-      <c r="K52" s="9">
+      <c r="K52" s="14">
         <f t="shared" si="9"/>
         <v>3.3686086142736826E-8</v>
       </c>
@@ -8226,7 +8236,7 @@
         <v>9.5</v>
       </c>
       <c r="J53" s="1"/>
-      <c r="K53" s="9">
+      <c r="K53" s="14">
         <f t="shared" si="9"/>
         <v>2.0211651685642096E-8</v>
       </c>
@@ -8258,7 +8268,7 @@
         <v>9.5</v>
       </c>
       <c r="J54" s="1"/>
-      <c r="K54" s="9">
+      <c r="K54" s="14">
         <f t="shared" si="9"/>
         <v>1.2126990966976336E-8</v>
       </c>
@@ -8290,7 +8300,7 @@
         <v>9.5</v>
       </c>
       <c r="J55" s="1"/>
-      <c r="K55" s="9">
+      <c r="K55" s="14">
         <f t="shared" si="9"/>
         <v>7.2761945357768809E-9</v>
       </c>
@@ -8315,13 +8325,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:AJ55"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="O8" sqref="O8"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="T17" sqref="T17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="11" max="11" width="9.85546875" customWidth="1"/>
+    <col min="17" max="17" width="18.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:36" x14ac:dyDescent="0.25">
@@ -8441,8 +8452,14 @@
       <c r="G8" s="6" t="s">
         <v>12</v>
       </c>
+      <c r="I8" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="N8" s="4">
         <v>0.05</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="2:36" x14ac:dyDescent="0.25">
@@ -8459,7 +8476,7 @@
         <v>11</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>14</v>
+        <v>100</v>
       </c>
       <c r="K9" s="6" t="s">
         <v>2</v>
@@ -8470,8 +8487,8 @@
       <c r="N9" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="Q9" t="s">
-        <v>20</v>
+      <c r="Q9" s="79" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="10" spans="2:36" x14ac:dyDescent="0.25">
@@ -10216,7 +10233,7 @@
   <dimension ref="B2:X55"/>
   <sheetViews>
     <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="Q8" sqref="Q8"/>
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10356,7 +10373,7 @@
         <v>3</v>
       </c>
       <c r="F11" s="2"/>
-      <c r="G11" s="7">
+      <c r="G11" s="75">
         <v>3</v>
       </c>
       <c r="H11">
@@ -10390,7 +10407,7 @@
         <v>2</v>
       </c>
       <c r="T11" s="1">
-        <f t="shared" ref="T11:T35" si="2">P11</f>
+        <f t="shared" ref="T11:T27" si="2">P11</f>
         <v>8</v>
       </c>
     </row>
@@ -10406,7 +10423,7 @@
         <f t="shared" ref="F12:F55" si="3">B$4*P11</f>
         <v>6.4000000000000001E-2</v>
       </c>
-      <c r="G12" s="33">
+      <c r="G12" s="76">
         <f>G11-F12</f>
         <v>2.9359999999999999</v>
       </c>
@@ -10458,7 +10475,7 @@
         <f t="shared" si="3"/>
         <v>3.0990237696000004E-2</v>
       </c>
-      <c r="G13" s="33">
+      <c r="G13" s="76">
         <f t="shared" ref="G13:G55" si="8">G12-F13</f>
         <v>2.9050097623040001</v>
       </c>
@@ -10510,7 +10527,7 @@
         <f t="shared" si="3"/>
         <v>1.5563884614555717E-2</v>
       </c>
-      <c r="G14" s="33">
+      <c r="G14" s="76">
         <f t="shared" si="8"/>
         <v>2.8894458776894445</v>
       </c>
@@ -10562,7 +10579,7 @@
         <f t="shared" si="3"/>
         <v>7.9524690421268023E-3</v>
       </c>
-      <c r="G15" s="33">
+      <c r="G15" s="76">
         <f t="shared" si="8"/>
         <v>2.8814934086473176</v>
       </c>
@@ -10614,7 +10631,7 @@
         <f t="shared" si="3"/>
         <v>4.0983031580344165E-3</v>
       </c>
-      <c r="G16" s="33">
+      <c r="G16" s="76">
         <f t="shared" si="8"/>
         <v>2.877395105489283</v>
       </c>
@@ -10666,7 +10683,7 @@
         <f t="shared" si="3"/>
         <v>2.1212641784430085E-3</v>
       </c>
-      <c r="G17" s="33">
+      <c r="G17" s="76">
         <f t="shared" si="8"/>
         <v>2.8752738413108401</v>
       </c>
@@ -10718,7 +10735,7 @@
         <f t="shared" si="3"/>
         <v>1.1004131584807138E-3</v>
       </c>
-      <c r="G18" s="33">
+      <c r="G18" s="76">
         <f t="shared" si="8"/>
         <v>2.8741734281523592</v>
       </c>
@@ -10770,7 +10787,7 @@
         <f t="shared" si="3"/>
         <v>5.7150265432067229E-4</v>
       </c>
-      <c r="G19" s="33">
+      <c r="G19" s="76">
         <f t="shared" si="8"/>
         <v>2.8736019254980385</v>
       </c>
@@ -10822,7 +10839,7 @@
         <f t="shared" si="3"/>
         <v>2.9698919734910613E-4</v>
       </c>
-      <c r="G20" s="33">
+      <c r="G20" s="76">
         <f t="shared" si="8"/>
         <v>2.8733049363006895</v>
       </c>
@@ -10874,7 +10891,7 @@
         <f t="shared" si="3"/>
         <v>1.5438247144694732E-4</v>
       </c>
-      <c r="G21" s="33">
+      <c r="G21" s="76">
         <f t="shared" si="8"/>
         <v>2.8731505538292423</v>
       </c>
@@ -10926,7 +10943,7 @@
         <f t="shared" si="3"/>
         <v>8.0264856104984093E-5</v>
       </c>
-      <c r="G22" s="33">
+      <c r="G22" s="76">
         <f t="shared" si="8"/>
         <v>2.8730702889731372</v>
       </c>
@@ -10978,7 +10995,7 @@
         <f t="shared" si="3"/>
         <v>4.1733932806845833E-5</v>
       </c>
-      <c r="G23" s="33">
+      <c r="G23" s="76">
         <f t="shared" si="8"/>
         <v>2.8730285550403303</v>
       </c>
@@ -11030,7 +11047,7 @@
         <f t="shared" si="3"/>
         <v>2.1700619756058867E-5</v>
       </c>
-      <c r="G24" s="33">
+      <c r="G24" s="76">
         <f t="shared" si="8"/>
         <v>2.873006854420574</v>
       </c>
@@ -11082,7 +11099,7 @@
         <f t="shared" si="3"/>
         <v>1.1284045052363884E-5</v>
       </c>
-      <c r="G25" s="33">
+      <c r="G25" s="76">
         <f t="shared" si="8"/>
         <v>2.8729955703755214</v>
       </c>
@@ -11134,7 +11151,7 @@
         <f t="shared" si="3"/>
         <v>5.8676284697482674E-6</v>
       </c>
-      <c r="G26" s="33">
+      <c r="G26" s="76">
         <f t="shared" si="8"/>
         <v>2.8729897027470517</v>
       </c>
@@ -11186,7 +11203,7 @@
         <f t="shared" si="3"/>
         <v>3.0511465363409419E-6</v>
       </c>
-      <c r="G27" s="33">
+      <c r="G27" s="76">
         <f t="shared" si="8"/>
         <v>2.8729866516005154</v>
       </c>
@@ -11238,7 +11255,7 @@
         <f t="shared" si="3"/>
         <v>1.5865907184727674E-6</v>
       </c>
-      <c r="G28" s="33">
+      <c r="G28" s="76">
         <f t="shared" si="8"/>
         <v>2.872985065009797</v>
       </c>
@@ -11269,10 +11286,6 @@
         <f t="shared" si="0"/>
         <v>converged</v>
       </c>
-      <c r="T28" s="1">
-        <f t="shared" si="2"/>
-        <v>1.0312821145165879E-4</v>
-      </c>
     </row>
     <row r="29" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B29">
@@ -11286,7 +11299,7 @@
         <f t="shared" si="3"/>
         <v>8.2502569161327034E-7</v>
       </c>
-      <c r="G29" s="33">
+      <c r="G29" s="76">
         <f t="shared" si="8"/>
         <v>2.8729842399841052</v>
       </c>
@@ -11317,10 +11330,6 @@
         <f t="shared" si="0"/>
         <v>converged</v>
       </c>
-      <c r="T29" s="1">
-        <f t="shared" si="2"/>
-        <v>5.3626619862935745E-5</v>
-      </c>
     </row>
     <row r="30" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B30">
@@ -11334,7 +11343,7 @@
         <f t="shared" si="3"/>
         <v>4.2901295890348598E-7</v>
       </c>
-      <c r="G30" s="14">
+      <c r="G30" s="70">
         <f t="shared" si="8"/>
         <v>2.8729838109711463</v>
       </c>
@@ -11365,10 +11374,6 @@
         <f t="shared" si="0"/>
         <v>converged</v>
       </c>
-      <c r="T30" s="1">
-        <f t="shared" si="2"/>
-        <v>2.7885828773139395E-5</v>
-      </c>
     </row>
     <row r="31" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B31">
@@ -11382,7 +11387,7 @@
         <f t="shared" si="3"/>
         <v>2.2308663018511516E-7</v>
       </c>
-      <c r="G31" s="14">
+      <c r="G31" s="70">
         <f t="shared" si="8"/>
         <v>2.8729835878845162</v>
       </c>
@@ -11413,10 +11418,6 @@
         <f t="shared" si="0"/>
         <v>converged</v>
       </c>
-      <c r="T31" s="1">
-        <f t="shared" si="2"/>
-        <v>1.4500627325330878E-5</v>
-      </c>
     </row>
     <row r="32" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B32">
@@ -11430,7 +11431,7 @@
         <f t="shared" si="3"/>
         <v>1.1600501860264703E-7</v>
       </c>
-      <c r="G32" s="14">
+      <c r="G32" s="70">
         <f t="shared" si="8"/>
         <v>2.8729834718794978</v>
       </c>
@@ -11461,10 +11462,6 @@
         <f t="shared" si="0"/>
         <v>converged</v>
       </c>
-      <c r="T32" s="1">
-        <f t="shared" si="2"/>
-        <v>7.5403252237914576E-6</v>
-      </c>
     </row>
     <row r="33" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B33">
@@ -11478,7 +11475,7 @@
         <f t="shared" si="3"/>
         <v>6.0322601790331661E-8</v>
       </c>
-      <c r="G33" s="14">
+      <c r="G33" s="70">
         <f t="shared" si="8"/>
         <v>2.8729834115568962</v>
       </c>
@@ -11509,10 +11506,6 @@
         <f t="shared" si="0"/>
         <v>converged</v>
       </c>
-      <c r="T33" s="1">
-        <f t="shared" si="2"/>
-        <v>3.9209688549617764E-6</v>
-      </c>
     </row>
     <row r="34" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B34">
@@ -11526,7 +11519,7 @@
         <f t="shared" si="3"/>
         <v>3.1367750839694214E-8</v>
       </c>
-      <c r="G34" s="14">
+      <c r="G34" s="70">
         <f t="shared" si="8"/>
         <v>2.8729833801891456</v>
       </c>
@@ -11557,10 +11550,6 @@
         <f t="shared" si="0"/>
         <v>converged</v>
       </c>
-      <c r="T34" s="1">
-        <f t="shared" si="2"/>
-        <v>2.0389037489895341E-6</v>
-      </c>
     </row>
     <row r="35" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B35">
@@ -11574,7 +11563,7 @@
         <f t="shared" si="3"/>
         <v>1.6311229991916272E-8</v>
       </c>
-      <c r="G35" s="14">
+      <c r="G35" s="70">
         <f t="shared" si="8"/>
         <v>2.8729833638779154</v>
       </c>
@@ -11605,10 +11594,6 @@
         <f t="shared" si="0"/>
         <v>converged</v>
       </c>
-      <c r="T35" s="1">
-        <f t="shared" si="2"/>
-        <v>1.060229926846682E-6</v>
-      </c>
     </row>
     <row r="36" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B36">
@@ -11622,7 +11607,7 @@
         <f t="shared" si="3"/>
         <v>8.4818394147734569E-9</v>
       </c>
-      <c r="G36" s="14">
+      <c r="G36" s="70">
         <f t="shared" si="8"/>
         <v>2.8729833553960762</v>
       </c>
@@ -11666,7 +11651,7 @@
         <f t="shared" si="3"/>
         <v>4.4105564243800598E-9</v>
       </c>
-      <c r="G37" s="14">
+      <c r="G37" s="70">
         <f t="shared" si="8"/>
         <v>2.8729833509855198</v>
       </c>
@@ -11710,7 +11695,7 @@
         <f t="shared" si="3"/>
         <v>2.2934894701579725E-9</v>
       </c>
-      <c r="G38" s="14">
+      <c r="G38" s="70">
         <f t="shared" si="8"/>
         <v>2.8729833486920304</v>
       </c>
@@ -11754,7 +11739,7 @@
         <f t="shared" si="3"/>
         <v>1.1926145105666906E-9</v>
       </c>
-      <c r="G39" s="14">
+      <c r="G39" s="70">
         <f t="shared" si="8"/>
         <v>2.872983347499416</v>
       </c>
@@ -11798,7 +11783,7 @@
         <f t="shared" si="3"/>
         <v>6.2015952328835084E-10</v>
       </c>
-      <c r="G40" s="14">
+      <c r="G40" s="70">
         <f t="shared" si="8"/>
         <v>2.8729833468792565</v>
       </c>
@@ -11842,7 +11827,7 @@
         <f t="shared" si="3"/>
         <v>3.2248299608902795E-10</v>
       </c>
-      <c r="G41" s="14">
+      <c r="G41" s="70">
         <f t="shared" si="8"/>
         <v>2.8729833465567736</v>
       </c>
@@ -11886,7 +11871,7 @@
         <f t="shared" si="3"/>
         <v>1.6769122840148845E-10</v>
       </c>
-      <c r="G42" s="14">
+      <c r="G42" s="70">
         <f t="shared" si="8"/>
         <v>2.8729833463890824</v>
       </c>
@@ -11930,7 +11915,7 @@
         <f t="shared" si="3"/>
         <v>8.7199434361926172E-11</v>
       </c>
-      <c r="G43" s="14">
+      <c r="G43" s="70">
         <f t="shared" si="8"/>
         <v>2.8729833463018828</v>
       </c>
@@ -11982,7 +11967,7 @@
         <f t="shared" si="3"/>
         <v>4.5343608999590279E-11</v>
       </c>
-      <c r="G44" s="14">
+      <c r="G44" s="70">
         <f t="shared" si="8"/>
         <v>2.8729833462565391</v>
       </c>
@@ -12034,7 +12019,7 @@
         <f t="shared" si="3"/>
         <v>2.3578672276438601E-11</v>
       </c>
-      <c r="G45" s="14">
+      <c r="G45" s="70">
         <f t="shared" si="8"/>
         <v>2.8729833462329606</v>
       </c>
@@ -12078,7 +12063,7 @@
         <f t="shared" si="3"/>
         <v>1.2261015257408433E-11</v>
       </c>
-      <c r="G46" s="14">
+      <c r="G46" s="70">
         <f t="shared" si="8"/>
         <v>2.8729833462206997</v>
       </c>
@@ -12122,7 +12107,7 @@
         <f t="shared" si="3"/>
         <v>6.375758755338244E-12</v>
       </c>
-      <c r="G47" s="14">
+      <c r="G47" s="70">
         <f t="shared" si="8"/>
         <v>2.8729833462143239</v>
       </c>
@@ -12166,7 +12151,7 @@
         <f t="shared" si="3"/>
         <v>3.3152932821077178E-12</v>
       </c>
-      <c r="G48" s="14">
+      <c r="G48" s="70">
         <f t="shared" si="8"/>
         <v>2.8729833462110088</v>
       </c>
@@ -12210,7 +12195,7 @@
         <f t="shared" si="3"/>
         <v>1.724133032658501E-12</v>
       </c>
-      <c r="G49" s="14">
+      <c r="G49" s="70">
         <f t="shared" si="8"/>
         <v>2.8729833462092849</v>
       </c>
@@ -12254,7 +12239,7 @@
         <f t="shared" si="3"/>
         <v>8.965755954157722E-13</v>
       </c>
-      <c r="G50" s="14">
+      <c r="G50" s="70">
         <f t="shared" si="8"/>
         <v>2.8729833462083882</v>
       </c>
@@ -12298,7 +12283,7 @@
         <f t="shared" si="3"/>
         <v>4.6628535570047043E-13</v>
       </c>
-      <c r="G51" s="14">
+      <c r="G51" s="70">
         <f t="shared" si="8"/>
         <v>2.872983346207922</v>
       </c>
@@ -12342,7 +12327,7 @@
         <f t="shared" si="3"/>
         <v>2.4238912966296321E-13</v>
       </c>
-      <c r="G52" s="14">
+      <c r="G52" s="70">
         <f t="shared" si="8"/>
         <v>2.8729833462076795</v>
       </c>
@@ -12386,7 +12371,7 @@
         <f t="shared" si="3"/>
         <v>1.261480211597359E-13</v>
       </c>
-      <c r="G53" s="14">
+      <c r="G53" s="70">
         <f t="shared" si="8"/>
         <v>2.8729833462075534</v>
       </c>
@@ -12430,7 +12415,7 @@
         <f t="shared" si="3"/>
         <v>6.5605777147644123E-14</v>
       </c>
-      <c r="G54" s="14">
+      <c r="G54" s="70">
         <f t="shared" si="8"/>
         <v>2.8729833462074876</v>
       </c>
@@ -12474,7 +12459,7 @@
         <f t="shared" si="3"/>
         <v>3.3903656646768531E-14</v>
       </c>
-      <c r="G55" s="14">
+      <c r="G55" s="70">
         <f t="shared" si="8"/>
         <v>2.8729833462074539</v>
       </c>
@@ -14555,7 +14540,7 @@
   <dimension ref="B1:AY68"/>
   <sheetViews>
     <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="AE59" sqref="AE59"/>
+      <selection activeCell="W12" sqref="W12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14629,6 +14614,9 @@
       </c>
     </row>
     <row r="3" spans="2:51" x14ac:dyDescent="0.25">
+      <c r="B3" s="25">
+        <v>0.05</v>
+      </c>
       <c r="I3" s="57" t="s">
         <v>35</v>
       </c>
@@ -14752,6 +14740,15 @@
       <c r="I6" s="6" t="s">
         <v>4</v>
       </c>
+      <c r="K6" s="77" t="s">
+        <v>97</v>
+      </c>
+      <c r="L6" s="78"/>
+      <c r="M6" s="78"/>
+      <c r="N6" s="78"/>
+      <c r="O6" s="78" t="s">
+        <v>98</v>
+      </c>
       <c r="S6">
         <v>5</v>
       </c>
@@ -14783,7 +14780,7 @@
         <v>2</v>
       </c>
       <c r="I7" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K7" t="s">
         <v>36</v>
@@ -14834,6 +14831,9 @@
       <c r="V9" t="s">
         <v>58</v>
       </c>
+      <c r="Y9" t="s">
+        <v>99</v>
+      </c>
       <c r="AC9" s="4">
         <v>0.05</v>
       </c>
@@ -14908,7 +14908,7 @@
       </c>
       <c r="I11" s="2">
         <f>I$7</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K11" s="2"/>
       <c r="L11" s="4">
@@ -14916,7 +14916,7 @@
       </c>
       <c r="M11" s="51">
         <f t="shared" ref="M11:M32" si="1">F11*L11+I11</f>
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="O11" s="2"/>
       <c r="P11" s="4">
@@ -14924,29 +14924,29 @@
       </c>
       <c r="Q11" s="51">
         <f>G11*P11+I11</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S11" s="52">
         <f t="shared" ref="S11:S18" si="2">(M11+Q11)</f>
-        <v>4.5</v>
+        <v>6.5</v>
       </c>
       <c r="T11" s="8">
         <f t="shared" ref="T11:T68" si="3">S11</f>
-        <v>4.5</v>
-      </c>
-      <c r="V11" s="9">
-        <v>1</v>
-      </c>
-      <c r="X11" s="46">
+        <v>6.5</v>
+      </c>
+      <c r="V11" s="36">
+        <v>1</v>
+      </c>
+      <c r="X11" s="4">
         <v>1</v>
       </c>
       <c r="Y11" s="53">
-        <f>T11-X11</f>
-        <v>3.5</v>
+        <f>X11-T11</f>
+        <v>-5.5</v>
       </c>
       <c r="AA11" s="10">
         <f>V11*Y11</f>
-        <v>3.5</v>
+        <v>-5.5</v>
       </c>
       <c r="AC11" t="str">
         <f>IF(ABS(Y11)&lt;AC$9,"converged","not converged")</f>
@@ -14954,7 +14954,7 @@
       </c>
       <c r="AD11" s="1">
         <f t="shared" ref="AD11:AD51" si="4">M11-V11</f>
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="12" spans="2:51" x14ac:dyDescent="0.25">
@@ -14974,65 +14974,67 @@
       </c>
       <c r="I12" s="2">
         <f t="shared" ref="I12:I68" si="5">I$7</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K12" s="7">
         <f t="shared" ref="K12:K43" si="6">B$4*AA11</f>
-        <v>0.17500000000000002</v>
+        <v>-0.27500000000000002</v>
       </c>
       <c r="L12" s="33">
-        <f>L11-K12</f>
-        <v>0.82499999999999996</v>
+        <f>L11+K12</f>
+        <v>0.72499999999999998</v>
       </c>
       <c r="M12" s="51">
         <f t="shared" si="1"/>
-        <v>0.41249999999999998</v>
+        <v>1.3625</v>
       </c>
       <c r="N12" s="1"/>
       <c r="O12" s="7">
         <f>B$4*AA11</f>
-        <v>0.17500000000000002</v>
+        <v>-0.27500000000000002</v>
       </c>
       <c r="P12" s="33">
-        <f>P11-O12</f>
-        <v>1.825</v>
+        <f>P11+O12</f>
+        <v>1.7250000000000001</v>
       </c>
       <c r="Q12" s="51">
         <f t="shared" ref="Q12:Q32" si="7">G12*P12+I12</f>
-        <v>3.65</v>
+        <v>4.45</v>
       </c>
       <c r="S12" s="52">
         <f t="shared" si="2"/>
-        <v>4.0625</v>
+        <v>5.8125</v>
       </c>
       <c r="T12" s="8">
         <f t="shared" si="3"/>
-        <v>4.0625</v>
+        <v>5.8125</v>
       </c>
       <c r="U12" s="1"/>
       <c r="V12" s="9">
+        <f>V11</f>
         <v>1</v>
       </c>
       <c r="W12" s="1"/>
       <c r="X12" s="46">
+        <f t="shared" ref="X12:X68" si="8">X11</f>
         <v>1</v>
       </c>
       <c r="Y12" s="53">
-        <f t="shared" ref="Y12:Y68" si="8">T12-X12</f>
-        <v>3.0625</v>
+        <f t="shared" ref="Y12:Y68" si="9">X12-T12</f>
+        <v>-4.8125</v>
       </c>
       <c r="Z12" s="1"/>
       <c r="AA12" s="10">
-        <f t="shared" ref="AA12:AA68" si="9">V12*Y12</f>
-        <v>3.0625</v>
+        <f t="shared" ref="AA12:AA68" si="10">V12*Y12</f>
+        <v>-4.8125</v>
       </c>
       <c r="AC12" t="str">
-        <f t="shared" ref="AC12:AC68" si="10">IF(ABS(Y12)&lt;AC$9,"converged","not converged")</f>
+        <f t="shared" ref="AC12:AC68" si="11">IF(ABS(Y12)&lt;AC$9,"converged","not converged")</f>
         <v>not converged</v>
       </c>
       <c r="AD12" s="1">
         <f t="shared" si="4"/>
-        <v>-0.58750000000000002</v>
+        <v>0.36250000000000004</v>
       </c>
     </row>
     <row r="13" spans="2:51" x14ac:dyDescent="0.25">
@@ -15052,65 +15054,67 @@
       </c>
       <c r="I13" s="2">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K13" s="7">
         <f t="shared" si="6"/>
-        <v>0.15312500000000001</v>
+        <v>-0.24062500000000001</v>
       </c>
       <c r="L13" s="33">
-        <f t="shared" ref="L13:L32" si="11">L12-K13</f>
-        <v>0.671875</v>
+        <f t="shared" ref="L13:L68" si="12">L12+K13</f>
+        <v>0.484375</v>
       </c>
       <c r="M13" s="51">
         <f t="shared" si="1"/>
-        <v>0.3359375</v>
+        <v>1.2421875</v>
       </c>
       <c r="N13" s="1"/>
       <c r="O13" s="7">
-        <f t="shared" ref="O13:O32" si="12">B$4*AA12</f>
-        <v>0.15312500000000001</v>
+        <f t="shared" ref="O13:O32" si="13">B$4*AA12</f>
+        <v>-0.24062500000000001</v>
       </c>
       <c r="P13" s="33">
-        <f t="shared" ref="P13:P32" si="13">P12-O13</f>
-        <v>1.671875</v>
+        <f t="shared" ref="P13:P68" si="14">P12+O13</f>
+        <v>1.484375</v>
       </c>
       <c r="Q13" s="51">
         <f t="shared" si="7"/>
-        <v>3.34375</v>
+        <v>3.96875</v>
       </c>
       <c r="S13" s="52">
         <f t="shared" si="2"/>
-        <v>3.6796875</v>
+        <v>5.2109375</v>
       </c>
       <c r="T13" s="8">
         <f t="shared" si="3"/>
-        <v>3.6796875</v>
+        <v>5.2109375</v>
       </c>
       <c r="U13" s="1"/>
       <c r="V13" s="9">
+        <f t="shared" ref="V13:V68" si="15">V12</f>
         <v>1</v>
       </c>
       <c r="W13" s="1"/>
       <c r="X13" s="46">
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="Y13" s="53">
-        <f t="shared" si="8"/>
-        <v>2.6796875</v>
+        <f t="shared" si="9"/>
+        <v>-4.2109375</v>
       </c>
       <c r="Z13" s="1"/>
       <c r="AA13" s="10">
-        <f t="shared" si="9"/>
-        <v>2.6796875</v>
+        <f t="shared" si="10"/>
+        <v>-4.2109375</v>
       </c>
       <c r="AC13" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>not converged</v>
       </c>
       <c r="AD13" s="1">
         <f t="shared" si="4"/>
-        <v>-0.6640625</v>
+        <v>0.2421875</v>
       </c>
     </row>
     <row r="14" spans="2:51" x14ac:dyDescent="0.25">
@@ -15130,65 +15134,67 @@
       </c>
       <c r="I14" s="2">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K14" s="7">
         <f t="shared" si="6"/>
-        <v>0.13398437500000002</v>
+        <v>-0.21054687500000002</v>
       </c>
       <c r="L14" s="33">
-        <f t="shared" si="11"/>
-        <v>0.53789062499999996</v>
+        <f t="shared" si="12"/>
+        <v>0.27382812499999998</v>
       </c>
       <c r="M14" s="51">
         <f t="shared" si="1"/>
-        <v>0.26894531249999998</v>
+        <v>1.1369140625</v>
       </c>
       <c r="N14" s="1"/>
       <c r="O14" s="7">
-        <f t="shared" si="12"/>
-        <v>0.13398437500000002</v>
+        <f t="shared" si="13"/>
+        <v>-0.21054687500000002</v>
       </c>
       <c r="P14" s="33">
-        <f t="shared" si="13"/>
-        <v>1.537890625</v>
+        <f t="shared" si="14"/>
+        <v>1.2738281250000001</v>
       </c>
       <c r="Q14" s="51">
         <f t="shared" si="7"/>
-        <v>3.0757812499999999</v>
+        <v>3.5476562500000002</v>
       </c>
       <c r="S14" s="52">
         <f t="shared" si="2"/>
-        <v>3.3447265625</v>
+        <v>4.6845703125</v>
       </c>
       <c r="T14" s="8">
         <f t="shared" si="3"/>
-        <v>3.3447265625</v>
+        <v>4.6845703125</v>
       </c>
       <c r="U14" s="1"/>
       <c r="V14" s="9">
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="W14" s="1"/>
       <c r="X14" s="46">
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="Y14" s="53">
-        <f t="shared" si="8"/>
-        <v>2.3447265625</v>
+        <f t="shared" si="9"/>
+        <v>-3.6845703125</v>
       </c>
       <c r="Z14" s="1"/>
       <c r="AA14" s="10">
-        <f t="shared" si="9"/>
-        <v>2.3447265625</v>
+        <f t="shared" si="10"/>
+        <v>-3.6845703125</v>
       </c>
       <c r="AC14" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>not converged</v>
       </c>
       <c r="AD14" s="1">
         <f t="shared" si="4"/>
-        <v>-0.73105468750000002</v>
+        <v>0.13691406250000004</v>
       </c>
     </row>
     <row r="15" spans="2:51" x14ac:dyDescent="0.25">
@@ -15208,65 +15214,67 @@
       </c>
       <c r="I15" s="2">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K15" s="7">
         <f t="shared" si="6"/>
-        <v>0.11723632812500001</v>
+        <v>-0.18422851562500001</v>
       </c>
       <c r="L15" s="33">
-        <f t="shared" si="11"/>
-        <v>0.42065429687499994</v>
+        <f t="shared" si="12"/>
+        <v>8.9599609374999972E-2</v>
       </c>
       <c r="M15" s="51">
         <f t="shared" si="1"/>
-        <v>0.21032714843749997</v>
+        <v>1.0447998046875</v>
       </c>
       <c r="N15" s="1"/>
       <c r="O15" s="7">
-        <f t="shared" si="12"/>
-        <v>0.11723632812500001</v>
+        <f t="shared" si="13"/>
+        <v>-0.18422851562500001</v>
       </c>
       <c r="P15" s="33">
-        <f t="shared" si="13"/>
-        <v>1.420654296875</v>
+        <f t="shared" si="14"/>
+        <v>1.089599609375</v>
       </c>
       <c r="Q15" s="51">
         <f t="shared" si="7"/>
-        <v>2.84130859375</v>
+        <v>3.17919921875</v>
       </c>
       <c r="S15" s="52">
         <f t="shared" si="2"/>
-        <v>3.0516357421875</v>
+        <v>4.2239990234375</v>
       </c>
       <c r="T15" s="8">
         <f t="shared" si="3"/>
-        <v>3.0516357421875</v>
+        <v>4.2239990234375</v>
       </c>
       <c r="U15" s="1"/>
       <c r="V15" s="9">
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="W15" s="1"/>
       <c r="X15" s="46">
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="Y15" s="53">
-        <f t="shared" si="8"/>
-        <v>2.0516357421875</v>
+        <f t="shared" si="9"/>
+        <v>-3.2239990234375</v>
       </c>
       <c r="Z15" s="1"/>
       <c r="AA15" s="10">
-        <f t="shared" si="9"/>
-        <v>2.0516357421875</v>
+        <f t="shared" si="10"/>
+        <v>-3.2239990234375</v>
       </c>
       <c r="AC15" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>not converged</v>
       </c>
       <c r="AD15" s="1">
         <f t="shared" si="4"/>
-        <v>-0.7896728515625</v>
+        <v>4.47998046875E-2</v>
       </c>
     </row>
     <row r="16" spans="2:51" x14ac:dyDescent="0.25">
@@ -15286,65 +15294,67 @@
       </c>
       <c r="I16" s="2">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K16" s="7">
         <f t="shared" si="6"/>
-        <v>0.102581787109375</v>
+        <v>-0.16119995117187502</v>
       </c>
       <c r="L16" s="33">
-        <f t="shared" si="11"/>
-        <v>0.31807250976562496</v>
+        <f t="shared" si="12"/>
+        <v>-7.160034179687505E-2</v>
       </c>
       <c r="M16" s="51">
         <f t="shared" si="1"/>
-        <v>0.15903625488281248</v>
+        <v>0.96419982910156243</v>
       </c>
       <c r="N16" s="1"/>
       <c r="O16" s="7">
-        <f t="shared" si="12"/>
-        <v>0.102581787109375</v>
+        <f t="shared" si="13"/>
+        <v>-0.16119995117187502</v>
       </c>
       <c r="P16" s="33">
-        <f t="shared" si="13"/>
-        <v>1.318072509765625</v>
+        <f t="shared" si="14"/>
+        <v>0.92839965820312498</v>
       </c>
       <c r="Q16" s="51">
         <f t="shared" si="7"/>
-        <v>2.6361450195312499</v>
+        <v>2.8567993164062502</v>
       </c>
       <c r="S16" s="52">
         <f t="shared" si="2"/>
-        <v>2.7951812744140625</v>
+        <v>3.8209991455078125</v>
       </c>
       <c r="T16" s="8">
         <f t="shared" si="3"/>
-        <v>2.7951812744140625</v>
+        <v>3.8209991455078125</v>
       </c>
       <c r="U16" s="1"/>
       <c r="V16" s="9">
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="W16" s="1"/>
       <c r="X16" s="46">
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="Y16" s="53">
-        <f t="shared" si="8"/>
-        <v>1.7951812744140625</v>
+        <f t="shared" si="9"/>
+        <v>-2.8209991455078125</v>
       </c>
       <c r="Z16" s="1"/>
       <c r="AA16" s="10">
-        <f t="shared" si="9"/>
-        <v>1.7951812744140625</v>
+        <f t="shared" si="10"/>
+        <v>-2.8209991455078125</v>
       </c>
       <c r="AC16" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>not converged</v>
       </c>
       <c r="AD16" s="1">
         <f t="shared" si="4"/>
-        <v>-0.84096374511718752</v>
+        <v>-3.5800170898437567E-2</v>
       </c>
     </row>
     <row r="17" spans="2:30" x14ac:dyDescent="0.25">
@@ -15364,65 +15374,67 @@
       </c>
       <c r="I17" s="2">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K17" s="7">
         <f t="shared" si="6"/>
-        <v>8.9759063720703136E-2</v>
+        <v>-0.14104995727539063</v>
       </c>
       <c r="L17" s="33">
-        <f t="shared" si="11"/>
-        <v>0.22831344604492182</v>
+        <f t="shared" si="12"/>
+        <v>-0.21265029907226568</v>
       </c>
       <c r="M17" s="51">
         <f t="shared" si="1"/>
-        <v>0.11415672302246091</v>
+        <v>0.89367485046386719</v>
       </c>
       <c r="N17" s="1"/>
       <c r="O17" s="7">
-        <f t="shared" si="12"/>
-        <v>8.9759063720703136E-2</v>
+        <f t="shared" si="13"/>
+        <v>-0.14104995727539063</v>
       </c>
       <c r="P17" s="33">
-        <f t="shared" si="13"/>
-        <v>1.2283134460449219</v>
+        <f t="shared" si="14"/>
+        <v>0.78734970092773438</v>
       </c>
       <c r="Q17" s="51">
         <f t="shared" si="7"/>
-        <v>2.4566268920898438</v>
+        <v>2.5746994018554687</v>
       </c>
       <c r="S17" s="52">
         <f t="shared" si="2"/>
-        <v>2.5707836151123047</v>
+        <v>3.4683742523193359</v>
       </c>
       <c r="T17" s="8">
         <f t="shared" si="3"/>
-        <v>2.5707836151123047</v>
+        <v>3.4683742523193359</v>
       </c>
       <c r="U17" s="1"/>
       <c r="V17" s="9">
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="W17" s="1"/>
       <c r="X17" s="46">
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="Y17" s="53">
-        <f t="shared" si="8"/>
-        <v>1.5707836151123047</v>
+        <f t="shared" si="9"/>
+        <v>-2.4683742523193359</v>
       </c>
       <c r="Z17" s="1"/>
       <c r="AA17" s="10">
-        <f t="shared" si="9"/>
-        <v>1.5707836151123047</v>
+        <f t="shared" si="10"/>
+        <v>-2.4683742523193359</v>
       </c>
       <c r="AC17" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>not converged</v>
       </c>
       <c r="AD17" s="1">
         <f t="shared" si="4"/>
-        <v>-0.88584327697753906</v>
+        <v>-0.10632514953613281</v>
       </c>
     </row>
     <row r="18" spans="2:30" x14ac:dyDescent="0.25">
@@ -15442,65 +15454,67 @@
       </c>
       <c r="I18" s="2">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K18" s="7">
         <f t="shared" si="6"/>
-        <v>7.8539180755615237E-2</v>
+        <v>-0.12341871261596681</v>
       </c>
       <c r="L18" s="33">
-        <f t="shared" si="11"/>
-        <v>0.1497742652893066</v>
+        <f t="shared" si="12"/>
+        <v>-0.3360690116882325</v>
       </c>
       <c r="M18" s="51">
         <f t="shared" si="1"/>
-        <v>7.4887132644653298E-2</v>
+        <v>0.83196549415588372</v>
       </c>
       <c r="N18" s="1"/>
       <c r="O18" s="7">
-        <f t="shared" si="12"/>
-        <v>7.8539180755615237E-2</v>
+        <f t="shared" si="13"/>
+        <v>-0.12341871261596681</v>
       </c>
       <c r="P18" s="33">
-        <f t="shared" si="13"/>
-        <v>1.1497742652893066</v>
+        <f t="shared" si="14"/>
+        <v>0.66393098831176756</v>
       </c>
       <c r="Q18" s="51">
         <f t="shared" si="7"/>
-        <v>2.2995485305786132</v>
+        <v>2.3278619766235353</v>
       </c>
       <c r="S18" s="52">
         <f t="shared" si="2"/>
-        <v>2.3744356632232666</v>
+        <v>3.1598274707794189</v>
       </c>
       <c r="T18" s="8">
         <f t="shared" si="3"/>
-        <v>2.3744356632232666</v>
+        <v>3.1598274707794189</v>
       </c>
       <c r="U18" s="1"/>
       <c r="V18" s="9">
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="W18" s="1"/>
       <c r="X18" s="46">
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="Y18" s="53">
-        <f t="shared" si="8"/>
-        <v>1.3744356632232666</v>
+        <f t="shared" si="9"/>
+        <v>-2.1598274707794189</v>
       </c>
       <c r="Z18" s="1"/>
       <c r="AA18" s="10">
-        <f t="shared" si="9"/>
-        <v>1.3744356632232666</v>
+        <f t="shared" si="10"/>
+        <v>-2.1598274707794189</v>
       </c>
       <c r="AC18" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>not converged</v>
       </c>
       <c r="AD18" s="1">
         <f t="shared" si="4"/>
-        <v>-0.9251128673553467</v>
+        <v>-0.16803450584411628</v>
       </c>
     </row>
     <row r="19" spans="2:30" x14ac:dyDescent="0.25">
@@ -15520,65 +15534,67 @@
       </c>
       <c r="I19" s="2">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K19" s="7">
         <f t="shared" si="6"/>
-        <v>6.8721783161163327E-2</v>
+        <v>-0.10799137353897095</v>
       </c>
       <c r="L19" s="33">
-        <f t="shared" si="11"/>
-        <v>8.1052482128143269E-2</v>
+        <f t="shared" si="12"/>
+        <v>-0.44406038522720348</v>
       </c>
       <c r="M19" s="51">
         <f t="shared" si="1"/>
-        <v>4.0526241064071634E-2</v>
+        <v>0.77796980738639832</v>
       </c>
       <c r="N19" s="1"/>
       <c r="O19" s="7">
-        <f t="shared" si="12"/>
-        <v>6.8721783161163327E-2</v>
+        <f t="shared" si="13"/>
+        <v>-0.10799137353897095</v>
       </c>
       <c r="P19" s="33">
-        <f t="shared" si="13"/>
-        <v>1.0810524821281433</v>
+        <f t="shared" si="14"/>
+        <v>0.55593961477279663</v>
       </c>
       <c r="Q19" s="51">
         <f t="shared" si="7"/>
-        <v>2.1621049642562866</v>
+        <v>2.1118792295455933</v>
       </c>
       <c r="S19" s="52">
-        <f t="shared" ref="S19:S32" si="14">(M19+Q19)</f>
-        <v>2.2026312053203583</v>
+        <f t="shared" ref="S19:S32" si="16">(M19+Q19)</f>
+        <v>2.8898490369319916</v>
       </c>
       <c r="T19" s="8">
         <f t="shared" si="3"/>
-        <v>2.2026312053203583</v>
+        <v>2.8898490369319916</v>
       </c>
       <c r="U19" s="1"/>
       <c r="V19" s="9">
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="W19" s="1"/>
       <c r="X19" s="46">
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="Y19" s="53">
-        <f t="shared" si="8"/>
-        <v>1.2026312053203583</v>
+        <f t="shared" si="9"/>
+        <v>-1.8898490369319916</v>
       </c>
       <c r="Z19" s="1"/>
       <c r="AA19" s="10">
-        <f t="shared" si="9"/>
-        <v>1.2026312053203583</v>
+        <f t="shared" si="10"/>
+        <v>-1.8898490369319916</v>
       </c>
       <c r="AC19" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>not converged</v>
       </c>
       <c r="AD19" s="1">
         <f t="shared" si="4"/>
-        <v>-0.95947375893592834</v>
+        <v>-0.22203019261360168</v>
       </c>
     </row>
     <row r="20" spans="2:30" x14ac:dyDescent="0.25">
@@ -15598,65 +15614,67 @@
       </c>
       <c r="I20" s="2">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K20" s="7">
         <f t="shared" si="6"/>
-        <v>6.0131560266017917E-2</v>
+        <v>-9.4492451846599587E-2</v>
       </c>
       <c r="L20" s="33">
-        <f t="shared" si="11"/>
-        <v>2.0920921862125352E-2</v>
+        <f t="shared" si="12"/>
+        <v>-0.53855283707380308</v>
       </c>
       <c r="M20" s="51">
         <f t="shared" si="1"/>
-        <v>1.0460460931062676E-2</v>
+        <v>0.73072358146309846</v>
       </c>
       <c r="N20" s="1"/>
       <c r="O20" s="7">
-        <f t="shared" si="12"/>
-        <v>6.0131560266017917E-2</v>
+        <f t="shared" si="13"/>
+        <v>-9.4492451846599587E-2</v>
       </c>
       <c r="P20" s="33">
-        <f t="shared" si="13"/>
-        <v>1.0209209218621254</v>
+        <f t="shared" si="14"/>
+        <v>0.46144716292619703</v>
       </c>
       <c r="Q20" s="51">
         <f t="shared" si="7"/>
-        <v>2.0418418437242507</v>
+        <v>1.9228943258523941</v>
       </c>
       <c r="S20" s="52">
-        <f t="shared" si="14"/>
-        <v>2.0523023046553135</v>
+        <f t="shared" si="16"/>
+        <v>2.6536179073154926</v>
       </c>
       <c r="T20" s="8">
         <f t="shared" si="3"/>
-        <v>2.0523023046553135</v>
+        <v>2.6536179073154926</v>
       </c>
       <c r="U20" s="1"/>
       <c r="V20" s="9">
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="W20" s="1"/>
       <c r="X20" s="46">
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="Y20" s="53">
-        <f t="shared" si="8"/>
-        <v>1.0523023046553135</v>
+        <f t="shared" si="9"/>
+        <v>-1.6536179073154926</v>
       </c>
       <c r="Z20" s="1"/>
       <c r="AA20" s="10">
-        <f t="shared" si="9"/>
-        <v>1.0523023046553135</v>
+        <f t="shared" si="10"/>
+        <v>-1.6536179073154926</v>
       </c>
       <c r="AC20" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>not converged</v>
       </c>
       <c r="AD20" s="1">
         <f t="shared" si="4"/>
-        <v>-0.98953953906893732</v>
+        <v>-0.26927641853690154</v>
       </c>
     </row>
     <row r="21" spans="2:30" x14ac:dyDescent="0.25">
@@ -15676,65 +15694,67 @@
       </c>
       <c r="I21" s="2">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K21" s="7">
         <f t="shared" si="6"/>
-        <v>5.2615115232765679E-2</v>
+        <v>-8.2680895365774637E-2</v>
       </c>
       <c r="L21" s="33">
-        <f t="shared" si="11"/>
-        <v>-3.1694193370640326E-2</v>
+        <f t="shared" si="12"/>
+        <v>-0.62123373243957769</v>
       </c>
       <c r="M21" s="51">
         <f t="shared" si="1"/>
-        <v>-1.5847096685320163E-2</v>
+        <v>0.68938313378021121</v>
       </c>
       <c r="N21" s="1"/>
       <c r="O21" s="7">
-        <f t="shared" si="12"/>
-        <v>5.2615115232765679E-2</v>
+        <f t="shared" si="13"/>
+        <v>-8.2680895365774637E-2</v>
       </c>
       <c r="P21" s="33">
-        <f t="shared" si="13"/>
-        <v>0.96830580662935972</v>
+        <f t="shared" si="14"/>
+        <v>0.37876626756042242</v>
       </c>
       <c r="Q21" s="51">
         <f t="shared" si="7"/>
-        <v>1.9366116132587194</v>
+        <v>1.7575325351208448</v>
       </c>
       <c r="S21" s="52">
-        <f t="shared" si="14"/>
-        <v>1.9207645165733993</v>
+        <f t="shared" si="16"/>
+        <v>2.4469156689010561</v>
       </c>
       <c r="T21" s="8">
         <f t="shared" si="3"/>
-        <v>1.9207645165733993</v>
+        <v>2.4469156689010561</v>
       </c>
       <c r="U21" s="1"/>
       <c r="V21" s="9">
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="W21" s="1"/>
       <c r="X21" s="46">
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="Y21" s="53">
-        <f t="shared" si="8"/>
-        <v>0.92076451657339931</v>
+        <f t="shared" si="9"/>
+        <v>-1.4469156689010561</v>
       </c>
       <c r="Z21" s="1"/>
       <c r="AA21" s="10">
-        <f t="shared" si="9"/>
-        <v>0.92076451657339931</v>
+        <f t="shared" si="10"/>
+        <v>-1.4469156689010561</v>
       </c>
       <c r="AC21" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>not converged</v>
       </c>
       <c r="AD21" s="1">
         <f t="shared" si="4"/>
-        <v>-1.0158470966853201</v>
+        <v>-0.31061686621978879</v>
       </c>
     </row>
     <row r="22" spans="2:30" x14ac:dyDescent="0.25">
@@ -15754,65 +15774,67 @@
       </c>
       <c r="I22" s="2">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K22" s="7">
         <f t="shared" si="6"/>
-        <v>4.6038225828669968E-2</v>
+        <v>-7.2345783445052811E-2</v>
       </c>
       <c r="L22" s="33">
-        <f t="shared" si="11"/>
-        <v>-7.7732419199310288E-2</v>
+        <f t="shared" si="12"/>
+        <v>-0.69357951588463052</v>
       </c>
       <c r="M22" s="51">
         <f t="shared" si="1"/>
-        <v>-3.8866209599655144E-2</v>
+        <v>0.65321024205768474</v>
       </c>
       <c r="N22" s="1"/>
       <c r="O22" s="7">
-        <f t="shared" si="12"/>
-        <v>4.6038225828669968E-2</v>
+        <f t="shared" si="13"/>
+        <v>-7.2345783445052811E-2</v>
       </c>
       <c r="P22" s="33">
-        <f t="shared" si="13"/>
-        <v>0.92226758080068971</v>
+        <f t="shared" si="14"/>
+        <v>0.3064204841153696</v>
       </c>
       <c r="Q22" s="51">
         <f t="shared" si="7"/>
-        <v>1.8445351616013794</v>
+        <v>1.6128409682307392</v>
       </c>
       <c r="S22" s="52">
-        <f t="shared" si="14"/>
-        <v>1.8056689520017244</v>
+        <f t="shared" si="16"/>
+        <v>2.266051210288424</v>
       </c>
       <c r="T22" s="8">
         <f t="shared" si="3"/>
-        <v>1.8056689520017244</v>
+        <v>2.266051210288424</v>
       </c>
       <c r="U22" s="1"/>
       <c r="V22" s="9">
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="W22" s="1"/>
       <c r="X22" s="46">
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="Y22" s="53">
-        <f t="shared" si="8"/>
-        <v>0.80566895200172439</v>
+        <f t="shared" si="9"/>
+        <v>-1.266051210288424</v>
       </c>
       <c r="Z22" s="1"/>
       <c r="AA22" s="10">
-        <f t="shared" si="9"/>
-        <v>0.80566895200172439</v>
+        <f t="shared" si="10"/>
+        <v>-1.266051210288424</v>
       </c>
       <c r="AC22" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>not converged</v>
       </c>
       <c r="AD22" s="1">
         <f t="shared" si="4"/>
-        <v>-1.038866209599655</v>
+        <v>-0.34678975794231526</v>
       </c>
     </row>
     <row r="23" spans="2:30" x14ac:dyDescent="0.25">
@@ -15832,65 +15854,67 @@
       </c>
       <c r="I23" s="2">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K23" s="7">
         <f t="shared" si="6"/>
-        <v>4.0283447600086224E-2</v>
+        <v>-6.3302560514421208E-2</v>
       </c>
       <c r="L23" s="33">
-        <f t="shared" si="11"/>
-        <v>-0.11801586679939652</v>
+        <f t="shared" si="12"/>
+        <v>-0.7568820763990517</v>
       </c>
       <c r="M23" s="51">
         <f t="shared" si="1"/>
-        <v>-5.9007933399698259E-2</v>
+        <v>0.62155896180047421</v>
       </c>
       <c r="N23" s="1"/>
       <c r="O23" s="7">
-        <f t="shared" si="12"/>
-        <v>4.0283447600086224E-2</v>
+        <f t="shared" si="13"/>
+        <v>-6.3302560514421208E-2</v>
       </c>
       <c r="P23" s="33">
-        <f t="shared" si="13"/>
-        <v>0.88198413320060354</v>
+        <f t="shared" si="14"/>
+        <v>0.24311792360094839</v>
       </c>
       <c r="Q23" s="51">
         <f t="shared" si="7"/>
-        <v>1.7639682664012071</v>
+        <v>1.4862358472018968</v>
       </c>
       <c r="S23" s="52">
-        <f t="shared" si="14"/>
-        <v>1.7049603330015088</v>
+        <f t="shared" si="16"/>
+        <v>2.107794809002371</v>
       </c>
       <c r="T23" s="8">
         <f t="shared" si="3"/>
-        <v>1.7049603330015088</v>
+        <v>2.107794809002371</v>
       </c>
       <c r="U23" s="1"/>
       <c r="V23" s="9">
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="W23" s="1"/>
       <c r="X23" s="46">
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="Y23" s="53">
-        <f t="shared" si="8"/>
-        <v>0.70496033300150884</v>
+        <f t="shared" si="9"/>
+        <v>-1.107794809002371</v>
       </c>
       <c r="Z23" s="1"/>
       <c r="AA23" s="10">
-        <f t="shared" si="9"/>
-        <v>0.70496033300150884</v>
+        <f t="shared" si="10"/>
+        <v>-1.107794809002371</v>
       </c>
       <c r="AC23" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>not converged</v>
       </c>
       <c r="AD23" s="1">
         <f t="shared" si="4"/>
-        <v>-1.0590079333996982</v>
+        <v>-0.37844103819952579</v>
       </c>
     </row>
     <row r="24" spans="2:30" x14ac:dyDescent="0.25">
@@ -15910,65 +15934,67 @@
       </c>
       <c r="I24" s="2">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K24" s="7">
         <f t="shared" si="6"/>
-        <v>3.5248016650075445E-2</v>
+        <v>-5.5389740450118553E-2</v>
       </c>
       <c r="L24" s="33">
-        <f t="shared" si="11"/>
-        <v>-0.15326388344947195</v>
+        <f t="shared" si="12"/>
+        <v>-0.81227181684917027</v>
       </c>
       <c r="M24" s="51">
         <f t="shared" si="1"/>
-        <v>-7.6631941724735975E-2</v>
+        <v>0.59386409157541487</v>
       </c>
       <c r="N24" s="1"/>
       <c r="O24" s="7">
-        <f t="shared" si="12"/>
-        <v>3.5248016650075445E-2</v>
+        <f t="shared" si="13"/>
+        <v>-5.5389740450118553E-2</v>
       </c>
       <c r="P24" s="33">
-        <f t="shared" si="13"/>
-        <v>0.84673611655052805</v>
+        <f t="shared" si="14"/>
+        <v>0.18772818315082984</v>
       </c>
       <c r="Q24" s="51">
         <f t="shared" si="7"/>
-        <v>1.6934722331010561</v>
+        <v>1.3754563663016597</v>
       </c>
       <c r="S24" s="52">
-        <f t="shared" si="14"/>
-        <v>1.6168402913763202</v>
+        <f t="shared" si="16"/>
+        <v>1.9693204578770747</v>
       </c>
       <c r="T24" s="8">
         <f t="shared" si="3"/>
-        <v>1.6168402913763202</v>
+        <v>1.9693204578770747</v>
       </c>
       <c r="U24" s="1"/>
       <c r="V24" s="9">
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="W24" s="1"/>
       <c r="X24" s="46">
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="Y24" s="53">
-        <f t="shared" si="8"/>
-        <v>0.61684029137632024</v>
+        <f t="shared" si="9"/>
+        <v>-0.96932045787707466</v>
       </c>
       <c r="Z24" s="1"/>
       <c r="AA24" s="10">
-        <f t="shared" si="9"/>
-        <v>0.61684029137632024</v>
+        <f t="shared" si="10"/>
+        <v>-0.96932045787707466</v>
       </c>
       <c r="AC24" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>not converged</v>
       </c>
       <c r="AD24" s="1">
         <f t="shared" si="4"/>
-        <v>-1.0766319417247359</v>
+        <v>-0.40613590842458513</v>
       </c>
     </row>
     <row r="25" spans="2:30" x14ac:dyDescent="0.25">
@@ -15988,65 +16014,67 @@
       </c>
       <c r="I25" s="2">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K25" s="7">
         <f t="shared" si="6"/>
-        <v>3.0842014568816013E-2</v>
+        <v>-4.8466022893853739E-2</v>
       </c>
       <c r="L25" s="33">
-        <f t="shared" si="11"/>
-        <v>-0.18410589801828797</v>
+        <f t="shared" si="12"/>
+        <v>-0.86073783974302398</v>
       </c>
       <c r="M25" s="51">
         <f t="shared" si="1"/>
-        <v>-9.2052949009143986E-2</v>
+        <v>0.56963108012848807</v>
       </c>
       <c r="N25" s="1"/>
       <c r="O25" s="7">
-        <f t="shared" si="12"/>
-        <v>3.0842014568816013E-2</v>
+        <f t="shared" si="13"/>
+        <v>-4.8466022893853739E-2</v>
       </c>
       <c r="P25" s="33">
-        <f t="shared" si="13"/>
-        <v>0.81589410198171208</v>
+        <f t="shared" si="14"/>
+        <v>0.1392621602569761</v>
       </c>
       <c r="Q25" s="51">
         <f t="shared" si="7"/>
-        <v>1.6317882039634242</v>
+        <v>1.2785243205139523</v>
       </c>
       <c r="S25" s="52">
-        <f t="shared" si="14"/>
-        <v>1.5397352549542802</v>
+        <f t="shared" si="16"/>
+        <v>1.8481554006424403</v>
       </c>
       <c r="T25" s="8">
         <f t="shared" si="3"/>
-        <v>1.5397352549542802</v>
+        <v>1.8481554006424403</v>
       </c>
       <c r="U25" s="1"/>
       <c r="V25" s="9">
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="W25" s="1"/>
       <c r="X25" s="46">
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="Y25" s="53">
-        <f t="shared" si="8"/>
-        <v>0.53973525495428021</v>
+        <f t="shared" si="9"/>
+        <v>-0.84815540064244033</v>
       </c>
       <c r="Z25" s="1"/>
       <c r="AA25" s="10">
-        <f t="shared" si="9"/>
-        <v>0.53973525495428021</v>
+        <f t="shared" si="10"/>
+        <v>-0.84815540064244033</v>
       </c>
       <c r="AC25" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>not converged</v>
       </c>
       <c r="AD25" s="1">
         <f t="shared" si="4"/>
-        <v>-1.092052949009144</v>
+        <v>-0.43036891987151193</v>
       </c>
     </row>
     <row r="26" spans="2:30" x14ac:dyDescent="0.25">
@@ -16066,65 +16094,67 @@
       </c>
       <c r="I26" s="2">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K26" s="7">
         <f t="shared" si="6"/>
-        <v>2.6986762747714013E-2</v>
+        <v>-4.2407770032122018E-2</v>
       </c>
       <c r="L26" s="33">
-        <f t="shared" si="11"/>
-        <v>-0.21109266076600197</v>
+        <f t="shared" si="12"/>
+        <v>-0.90314560977514602</v>
       </c>
       <c r="M26" s="51">
         <f t="shared" si="1"/>
-        <v>-0.10554633038300099</v>
+        <v>0.54842719511242699</v>
       </c>
       <c r="N26" s="1"/>
       <c r="O26" s="7">
-        <f t="shared" si="12"/>
-        <v>2.6986762747714013E-2</v>
+        <f t="shared" si="13"/>
+        <v>-4.2407770032122018E-2</v>
       </c>
       <c r="P26" s="33">
-        <f t="shared" si="13"/>
-        <v>0.78890733923399803</v>
+        <f t="shared" si="14"/>
+        <v>9.6854390224854092E-2</v>
       </c>
       <c r="Q26" s="51">
         <f t="shared" si="7"/>
-        <v>1.5778146784679961</v>
+        <v>1.1937087804497082</v>
       </c>
       <c r="S26" s="52">
-        <f t="shared" si="14"/>
-        <v>1.4722683480849952</v>
+        <f t="shared" si="16"/>
+        <v>1.7421359755621353</v>
       </c>
       <c r="T26" s="8">
         <f t="shared" si="3"/>
-        <v>1.4722683480849952</v>
+        <v>1.7421359755621353</v>
       </c>
       <c r="U26" s="1"/>
       <c r="V26" s="9">
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="W26" s="1"/>
       <c r="X26" s="46">
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="Y26" s="53">
-        <f t="shared" si="8"/>
-        <v>0.47226834808499518</v>
+        <f t="shared" si="9"/>
+        <v>-0.74213597556213529</v>
       </c>
       <c r="Z26" s="1"/>
       <c r="AA26" s="10">
-        <f t="shared" si="9"/>
-        <v>0.47226834808499518</v>
+        <f t="shared" si="10"/>
+        <v>-0.74213597556213529</v>
       </c>
       <c r="AC26" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>not converged</v>
       </c>
       <c r="AD26" s="1">
         <f t="shared" si="4"/>
-        <v>-1.1055463303830009</v>
+        <v>-0.45157280488757301</v>
       </c>
     </row>
     <row r="27" spans="2:30" x14ac:dyDescent="0.25">
@@ -16144,65 +16174,67 @@
       </c>
       <c r="I27" s="2">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K27" s="7">
         <f t="shared" si="6"/>
-        <v>2.361341740424976E-2</v>
+        <v>-3.7106798778106763E-2</v>
       </c>
       <c r="L27" s="33">
-        <f t="shared" si="11"/>
-        <v>-0.23470607817025174</v>
+        <f t="shared" si="12"/>
+        <v>-0.94025240855325276</v>
       </c>
       <c r="M27" s="51">
         <f t="shared" si="1"/>
-        <v>-0.11735303908512587</v>
+        <v>0.52987379572337368</v>
       </c>
       <c r="N27" s="1"/>
       <c r="O27" s="7">
-        <f t="shared" si="12"/>
-        <v>2.361341740424976E-2</v>
+        <f t="shared" si="13"/>
+        <v>-3.7106798778106763E-2</v>
       </c>
       <c r="P27" s="33">
-        <f t="shared" si="13"/>
-        <v>0.76529392182974831</v>
+        <f t="shared" si="14"/>
+        <v>5.9747591446747329E-2</v>
       </c>
       <c r="Q27" s="51">
         <f t="shared" si="7"/>
-        <v>1.5305878436594966</v>
+        <v>1.1194951828934947</v>
       </c>
       <c r="S27" s="52">
-        <f t="shared" si="14"/>
-        <v>1.4132348045743708</v>
+        <f t="shared" si="16"/>
+        <v>1.6493689786168684</v>
       </c>
       <c r="T27" s="8">
         <f t="shared" si="3"/>
-        <v>1.4132348045743708</v>
+        <v>1.6493689786168684</v>
       </c>
       <c r="U27" s="1"/>
       <c r="V27" s="9">
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="W27" s="1"/>
       <c r="X27" s="46">
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="Y27" s="53">
-        <f t="shared" si="8"/>
-        <v>0.41323480457437078</v>
+        <f t="shared" si="9"/>
+        <v>-0.64936897861686838</v>
       </c>
       <c r="Z27" s="1"/>
       <c r="AA27" s="10">
-        <f t="shared" si="9"/>
-        <v>0.41323480457437078</v>
+        <f t="shared" si="10"/>
+        <v>-0.64936897861686838</v>
       </c>
       <c r="AC27" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>not converged</v>
       </c>
       <c r="AD27" s="1">
         <f t="shared" si="4"/>
-        <v>-1.1173530390851258</v>
+        <v>-0.47012620427662632</v>
       </c>
     </row>
     <row r="28" spans="2:30" x14ac:dyDescent="0.25">
@@ -16222,65 +16254,67 @@
       </c>
       <c r="I28" s="2">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K28" s="7">
         <f t="shared" si="6"/>
-        <v>2.0661740228718542E-2</v>
+        <v>-3.246844893084342E-2</v>
       </c>
       <c r="L28" s="33">
-        <f t="shared" si="11"/>
-        <v>-0.25536781839897027</v>
+        <f t="shared" si="12"/>
+        <v>-0.9727208574840962</v>
       </c>
       <c r="M28" s="51">
         <f t="shared" si="1"/>
-        <v>-0.12768390919948513</v>
+        <v>0.5136395712579519</v>
       </c>
       <c r="N28" s="1"/>
       <c r="O28" s="7">
-        <f t="shared" si="12"/>
-        <v>2.0661740228718542E-2</v>
+        <f t="shared" si="13"/>
+        <v>-3.246844893084342E-2</v>
       </c>
       <c r="P28" s="33">
-        <f t="shared" si="13"/>
-        <v>0.74463218160102973</v>
+        <f t="shared" si="14"/>
+        <v>2.7279142515903909E-2</v>
       </c>
       <c r="Q28" s="51">
         <f t="shared" si="7"/>
-        <v>1.4892643632020595</v>
+        <v>1.0545582850318078</v>
       </c>
       <c r="S28" s="52">
-        <f t="shared" si="14"/>
-        <v>1.3615804540025742</v>
+        <f t="shared" si="16"/>
+        <v>1.5681978562897596</v>
       </c>
       <c r="T28" s="8">
         <f t="shared" si="3"/>
-        <v>1.3615804540025742</v>
+        <v>1.5681978562897596</v>
       </c>
       <c r="U28" s="1"/>
       <c r="V28" s="9">
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="W28" s="1"/>
       <c r="X28" s="46">
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="Y28" s="53">
-        <f t="shared" si="8"/>
-        <v>0.36158045400257421</v>
+        <f t="shared" si="9"/>
+        <v>-0.56819785628975961</v>
       </c>
       <c r="Z28" s="1"/>
       <c r="AA28" s="10">
-        <f t="shared" si="9"/>
-        <v>0.36158045400257421</v>
+        <f t="shared" si="10"/>
+        <v>-0.56819785628975961</v>
       </c>
       <c r="AC28" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>not converged</v>
       </c>
       <c r="AD28" s="1">
         <f t="shared" si="4"/>
-        <v>-1.1276839091994852</v>
+        <v>-0.4863604287420481</v>
       </c>
     </row>
     <row r="29" spans="2:30" x14ac:dyDescent="0.25">
@@ -16300,65 +16334,67 @@
       </c>
       <c r="I29" s="2">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K29" s="7">
         <f t="shared" si="6"/>
-        <v>1.8079022700128712E-2</v>
+        <v>-2.8409892814487983E-2</v>
       </c>
       <c r="L29" s="33">
-        <f t="shared" si="11"/>
-        <v>-0.273446841099099</v>
+        <f t="shared" si="12"/>
+        <v>-1.0011307502985842</v>
       </c>
       <c r="M29" s="51">
         <f t="shared" si="1"/>
-        <v>-0.1367234205495495</v>
+        <v>0.49943462485070789</v>
       </c>
       <c r="N29" s="1"/>
       <c r="O29" s="7">
-        <f t="shared" si="12"/>
-        <v>1.8079022700128712E-2</v>
+        <f t="shared" si="13"/>
+        <v>-2.8409892814487983E-2</v>
       </c>
       <c r="P29" s="33">
-        <f t="shared" si="13"/>
-        <v>0.726553158900901</v>
+        <f t="shared" si="14"/>
+        <v>-1.1307502985840739E-3</v>
       </c>
       <c r="Q29" s="51">
         <f t="shared" si="7"/>
-        <v>1.453106317801802</v>
+        <v>0.99773849940283188</v>
       </c>
       <c r="S29" s="52">
-        <f t="shared" si="14"/>
-        <v>1.3163828972522524</v>
+        <f t="shared" si="16"/>
+        <v>1.4971731242535398</v>
       </c>
       <c r="T29" s="8">
         <f t="shared" si="3"/>
-        <v>1.3163828972522524</v>
+        <v>1.4971731242535398</v>
       </c>
       <c r="U29" s="1"/>
       <c r="V29" s="9">
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="W29" s="1"/>
       <c r="X29" s="46">
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="Y29" s="53">
-        <f t="shared" si="8"/>
-        <v>0.31638289725225244</v>
+        <f t="shared" si="9"/>
+        <v>-0.49717312425353977</v>
       </c>
       <c r="Z29" s="1"/>
       <c r="AA29" s="10">
-        <f t="shared" si="9"/>
-        <v>0.31638289725225244</v>
+        <f t="shared" si="10"/>
+        <v>-0.49717312425353977</v>
       </c>
       <c r="AC29" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>not converged</v>
       </c>
       <c r="AD29" s="1">
         <f t="shared" si="4"/>
-        <v>-1.1367234205495496</v>
+        <v>-0.50056537514929211</v>
       </c>
     </row>
     <row r="30" spans="2:30" x14ac:dyDescent="0.25">
@@ -16378,65 +16414,67 @@
       </c>
       <c r="I30" s="2">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K30" s="7">
         <f t="shared" si="6"/>
-        <v>1.5819144862612624E-2</v>
+        <v>-2.485865621267699E-2</v>
       </c>
       <c r="L30" s="33">
-        <f t="shared" si="11"/>
-        <v>-0.2892659859617116</v>
+        <f t="shared" si="12"/>
+        <v>-1.0259894065112611</v>
       </c>
       <c r="M30" s="51">
         <f t="shared" si="1"/>
-        <v>-0.1446329929808558</v>
+        <v>0.48700529674436943</v>
       </c>
       <c r="N30" s="1"/>
       <c r="O30" s="7">
-        <f t="shared" si="12"/>
-        <v>1.5819144862612624E-2</v>
+        <f t="shared" si="13"/>
+        <v>-2.485865621267699E-2</v>
       </c>
       <c r="P30" s="33">
-        <f t="shared" si="13"/>
-        <v>0.7107340140382884</v>
+        <f t="shared" si="14"/>
+        <v>-2.5989406511261064E-2</v>
       </c>
       <c r="Q30" s="51">
         <f t="shared" si="7"/>
-        <v>1.4214680280765768</v>
+        <v>0.94802118697747784</v>
       </c>
       <c r="S30" s="52">
-        <f t="shared" si="14"/>
-        <v>1.2768350350957209</v>
+        <f t="shared" si="16"/>
+        <v>1.4350264837218472</v>
       </c>
       <c r="T30" s="8">
         <f t="shared" si="3"/>
-        <v>1.2768350350957209</v>
+        <v>1.4350264837218472</v>
       </c>
       <c r="U30" s="1"/>
       <c r="V30" s="9">
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="W30" s="1"/>
       <c r="X30" s="46">
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="Y30" s="53">
-        <f t="shared" si="8"/>
-        <v>0.27683503509572094</v>
+        <f t="shared" si="9"/>
+        <v>-0.43502648372184716</v>
       </c>
       <c r="Z30" s="1"/>
       <c r="AA30" s="10">
-        <f t="shared" si="9"/>
-        <v>0.27683503509572094</v>
+        <f t="shared" si="10"/>
+        <v>-0.43502648372184716</v>
       </c>
       <c r="AC30" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>not converged</v>
       </c>
       <c r="AD30" s="1">
         <f t="shared" si="4"/>
-        <v>-1.1446329929808559</v>
+        <v>-0.51299470325563057</v>
       </c>
     </row>
     <row r="31" spans="2:30" x14ac:dyDescent="0.25">
@@ -16447,74 +16485,76 @@
         <v>0</v>
       </c>
       <c r="F31" s="23">
-        <f t="shared" ref="F31:G51" si="15">F$7</f>
+        <f t="shared" ref="F31:G51" si="17">F$7</f>
         <v>0.5</v>
       </c>
       <c r="G31" s="23">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>2</v>
       </c>
       <c r="I31" s="2">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K31" s="7">
         <f t="shared" si="6"/>
-        <v>1.3841751754786047E-2</v>
+        <v>-2.1751324186092359E-2</v>
       </c>
       <c r="L31" s="33">
-        <f t="shared" si="11"/>
-        <v>-0.30310773771649763</v>
+        <f t="shared" si="12"/>
+        <v>-1.0477407306973534</v>
       </c>
       <c r="M31" s="51">
         <f t="shared" si="1"/>
-        <v>-0.15155386885824881</v>
+        <v>0.4761296346513233</v>
       </c>
       <c r="N31" s="1"/>
       <c r="O31" s="7">
-        <f t="shared" si="12"/>
-        <v>1.3841751754786047E-2</v>
+        <f t="shared" si="13"/>
+        <v>-2.1751324186092359E-2</v>
       </c>
       <c r="P31" s="33">
-        <f t="shared" si="13"/>
-        <v>0.69689226228350232</v>
+        <f t="shared" si="14"/>
+        <v>-4.774073069735342E-2</v>
       </c>
       <c r="Q31" s="51">
         <f t="shared" si="7"/>
-        <v>1.3937845245670046</v>
+        <v>0.90451853860529319</v>
       </c>
       <c r="S31" s="52">
-        <f t="shared" si="14"/>
-        <v>1.2422306557087559</v>
+        <f t="shared" si="16"/>
+        <v>1.3806481732566165</v>
       </c>
       <c r="T31" s="8">
         <f t="shared" si="3"/>
-        <v>1.2422306557087559</v>
+        <v>1.3806481732566165</v>
       </c>
       <c r="U31" s="1"/>
       <c r="V31" s="9">
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="W31" s="1"/>
       <c r="X31" s="46">
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="Y31" s="53">
-        <f t="shared" si="8"/>
-        <v>0.2422306557087559</v>
+        <f t="shared" si="9"/>
+        <v>-0.38064817325661648</v>
       </c>
       <c r="Z31" s="1"/>
       <c r="AA31" s="10">
-        <f t="shared" si="9"/>
-        <v>0.2422306557087559</v>
+        <f t="shared" si="10"/>
+        <v>-0.38064817325661648</v>
       </c>
       <c r="AC31" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>not converged</v>
       </c>
       <c r="AD31" s="1">
         <f t="shared" si="4"/>
-        <v>-1.1515538688582487</v>
+        <v>-0.5238703653486767</v>
       </c>
     </row>
     <row r="32" spans="2:30" x14ac:dyDescent="0.25">
@@ -16525,74 +16565,76 @@
         <v>-0.5</v>
       </c>
       <c r="F32" s="23">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0.5</v>
       </c>
       <c r="G32" s="23">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>2</v>
       </c>
       <c r="I32" s="2">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K32" s="7">
         <f t="shared" si="6"/>
-        <v>1.2111532785437796E-2</v>
+        <v>-1.9032408662830826E-2</v>
       </c>
       <c r="L32" s="33">
-        <f t="shared" si="11"/>
-        <v>-0.31521927050193543</v>
+        <f t="shared" si="12"/>
+        <v>-1.0667731393601843</v>
       </c>
       <c r="M32" s="51">
         <f t="shared" si="1"/>
-        <v>-0.15760963525096772</v>
+        <v>0.46661343031990787</v>
       </c>
       <c r="N32" s="1"/>
       <c r="O32" s="7">
-        <f t="shared" si="12"/>
-        <v>1.2111532785437796E-2</v>
+        <f t="shared" si="13"/>
+        <v>-1.9032408662830826E-2</v>
       </c>
       <c r="P32" s="33">
-        <f t="shared" si="13"/>
-        <v>0.68478072949806457</v>
+        <f t="shared" si="14"/>
+        <v>-6.6773139360184253E-2</v>
       </c>
       <c r="Q32" s="51">
         <f t="shared" si="7"/>
-        <v>1.3695614589961291</v>
+        <v>0.86645372127963149</v>
       </c>
       <c r="S32" s="52">
-        <f t="shared" si="14"/>
-        <v>1.2119518237451614</v>
+        <f t="shared" si="16"/>
+        <v>1.3330671515995394</v>
       </c>
       <c r="T32" s="8">
         <f t="shared" si="3"/>
-        <v>1.2119518237451614</v>
+        <v>1.3330671515995394</v>
       </c>
       <c r="U32" s="1"/>
       <c r="V32" s="9">
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="W32" s="1"/>
       <c r="X32" s="46">
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="Y32" s="53">
-        <f t="shared" si="8"/>
-        <v>0.21195182374516142</v>
+        <f t="shared" si="9"/>
+        <v>-0.33306715159953937</v>
       </c>
       <c r="Z32" s="1"/>
       <c r="AA32" s="10">
-        <f t="shared" si="9"/>
-        <v>0.21195182374516142</v>
+        <f t="shared" si="10"/>
+        <v>-0.33306715159953937</v>
       </c>
       <c r="AC32" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>not converged</v>
       </c>
       <c r="AD32" s="1">
         <f t="shared" si="4"/>
-        <v>-1.1576096352509677</v>
+        <v>-0.53338656968009213</v>
       </c>
     </row>
     <row r="33" spans="2:30" x14ac:dyDescent="0.25">
@@ -16603,74 +16645,76 @@
         <v>-1</v>
       </c>
       <c r="F33" s="23">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0.5</v>
       </c>
       <c r="G33" s="23">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>2</v>
       </c>
       <c r="I33" s="2">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K33" s="7">
         <f t="shared" si="6"/>
-        <v>1.0597591187258072E-2</v>
+        <v>-1.665335757997697E-2</v>
       </c>
       <c r="L33" s="33">
-        <f t="shared" ref="L33:L52" si="16">L32-K33</f>
-        <v>-0.32581686168919349</v>
+        <f t="shared" si="12"/>
+        <v>-1.0834264969401612</v>
       </c>
       <c r="M33" s="51">
-        <f t="shared" ref="M33:M52" si="17">F33*L33+I33</f>
-        <v>-0.16290843084459675</v>
+        <f t="shared" ref="M33:M52" si="18">F33*L33+I33</f>
+        <v>0.45828675152991938</v>
       </c>
       <c r="N33" s="1"/>
       <c r="O33" s="7">
-        <f t="shared" ref="O33:O52" si="18">B$4*AA32</f>
-        <v>1.0597591187258072E-2</v>
+        <f t="shared" ref="O33:O52" si="19">B$4*AA32</f>
+        <v>-1.665335757997697E-2</v>
       </c>
       <c r="P33" s="33">
-        <f t="shared" ref="P33:P52" si="19">P32-O33</f>
-        <v>0.67418313831080645</v>
+        <f t="shared" si="14"/>
+        <v>-8.3426496940161216E-2</v>
       </c>
       <c r="Q33" s="51">
         <f t="shared" ref="Q33:Q52" si="20">G33*P33+I33</f>
-        <v>1.3483662766216129</v>
+        <v>0.83314700611967751</v>
       </c>
       <c r="S33" s="52">
         <f t="shared" ref="S33:S52" si="21">(M33+Q33)</f>
-        <v>1.1854578457770162</v>
+        <v>1.2914337576495969</v>
       </c>
       <c r="T33" s="8">
         <f t="shared" si="3"/>
-        <v>1.1854578457770162</v>
+        <v>1.2914337576495969</v>
       </c>
       <c r="U33" s="1"/>
       <c r="V33" s="9">
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="W33" s="1"/>
       <c r="X33" s="46">
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="Y33" s="53">
-        <f t="shared" si="8"/>
-        <v>0.18545784577701618</v>
+        <f t="shared" si="9"/>
+        <v>-0.29143375764959689</v>
       </c>
       <c r="Z33" s="1"/>
       <c r="AA33" s="10">
-        <f t="shared" si="9"/>
-        <v>0.18545784577701618</v>
+        <f t="shared" si="10"/>
+        <v>-0.29143375764959689</v>
       </c>
       <c r="AC33" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>not converged</v>
       </c>
       <c r="AD33" s="1">
         <f t="shared" si="4"/>
-        <v>-1.1629084308445967</v>
+        <v>-0.54171324847008062</v>
       </c>
     </row>
     <row r="34" spans="2:30" x14ac:dyDescent="0.25">
@@ -16681,74 +16725,76 @@
         <v>-1.5</v>
       </c>
       <c r="F34" s="23">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0.5</v>
       </c>
       <c r="G34" s="23">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>2</v>
       </c>
       <c r="I34" s="2">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K34" s="7">
         <f t="shared" si="6"/>
-        <v>9.2728922888508092E-3</v>
+        <v>-1.4571687882479846E-2</v>
       </c>
       <c r="L34" s="33">
-        <f t="shared" si="16"/>
-        <v>-0.3350897539780443</v>
+        <f t="shared" si="12"/>
+        <v>-1.097998184822641</v>
       </c>
       <c r="M34" s="51">
-        <f t="shared" si="17"/>
-        <v>-0.16754487698902215</v>
+        <f t="shared" si="18"/>
+        <v>0.4510009075886795</v>
       </c>
       <c r="N34" s="1"/>
       <c r="O34" s="7">
-        <f t="shared" si="18"/>
-        <v>9.2728922888508092E-3</v>
+        <f t="shared" si="19"/>
+        <v>-1.4571687882479846E-2</v>
       </c>
       <c r="P34" s="33">
-        <f t="shared" si="19"/>
-        <v>0.66491024602195559</v>
+        <f t="shared" si="14"/>
+        <v>-9.7998184822641055E-2</v>
       </c>
       <c r="Q34" s="51">
         <f t="shared" si="20"/>
-        <v>1.3298204920439112</v>
+        <v>0.80400363035471789</v>
       </c>
       <c r="S34" s="52">
         <f t="shared" si="21"/>
-        <v>1.162275615054889</v>
+        <v>1.2550045379433974</v>
       </c>
       <c r="T34" s="8">
         <f t="shared" si="3"/>
-        <v>1.162275615054889</v>
+        <v>1.2550045379433974</v>
       </c>
       <c r="U34" s="1"/>
       <c r="V34" s="9">
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="W34" s="1"/>
       <c r="X34" s="46">
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="Y34" s="53">
-        <f t="shared" si="8"/>
-        <v>0.16227561505488897</v>
+        <f t="shared" si="9"/>
+        <v>-0.25500453794339739</v>
       </c>
       <c r="Z34" s="1"/>
       <c r="AA34" s="10">
-        <f t="shared" si="9"/>
-        <v>0.16227561505488897</v>
+        <f t="shared" si="10"/>
+        <v>-0.25500453794339739</v>
       </c>
       <c r="AC34" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>not converged</v>
       </c>
       <c r="AD34" s="1">
         <f t="shared" si="4"/>
-        <v>-1.1675448769890222</v>
+        <v>-0.5489990924113205</v>
       </c>
     </row>
     <row r="35" spans="2:30" x14ac:dyDescent="0.25">
@@ -16759,74 +16805,76 @@
         <v>-2</v>
       </c>
       <c r="F35" s="23">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0.5</v>
       </c>
       <c r="G35" s="23">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>2</v>
       </c>
       <c r="I35" s="2">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K35" s="7">
         <f t="shared" si="6"/>
-        <v>8.1137807527444494E-3</v>
+        <v>-1.275022689716987E-2</v>
       </c>
       <c r="L35" s="33">
-        <f t="shared" si="16"/>
-        <v>-0.34320353473078874</v>
+        <f t="shared" si="12"/>
+        <v>-1.1107484117198108</v>
       </c>
       <c r="M35" s="51">
-        <f t="shared" si="17"/>
-        <v>-0.17160176736539437</v>
+        <f t="shared" si="18"/>
+        <v>0.44462579414009462</v>
       </c>
       <c r="N35" s="1"/>
       <c r="O35" s="7">
-        <f t="shared" si="18"/>
-        <v>8.1137807527444494E-3</v>
+        <f t="shared" si="19"/>
+        <v>-1.275022689716987E-2</v>
       </c>
       <c r="P35" s="33">
-        <f t="shared" si="19"/>
-        <v>0.65679646526921109</v>
+        <f t="shared" si="14"/>
+        <v>-0.11074841171981092</v>
       </c>
       <c r="Q35" s="51">
         <f t="shared" si="20"/>
-        <v>1.3135929305384222</v>
+        <v>0.77850317656037815</v>
       </c>
       <c r="S35" s="52">
         <f t="shared" si="21"/>
-        <v>1.1419911631730277</v>
+        <v>1.2231289707004729</v>
       </c>
       <c r="T35" s="8">
         <f t="shared" si="3"/>
-        <v>1.1419911631730277</v>
+        <v>1.2231289707004729</v>
       </c>
       <c r="U35" s="1"/>
       <c r="V35" s="9">
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="W35" s="1"/>
       <c r="X35" s="46">
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="Y35" s="53">
-        <f t="shared" si="8"/>
-        <v>0.14199116317302773</v>
+        <f t="shared" si="9"/>
+        <v>-0.22312897070047288</v>
       </c>
       <c r="Z35" s="1"/>
       <c r="AA35" s="10">
-        <f t="shared" si="9"/>
-        <v>0.14199116317302773</v>
+        <f t="shared" si="10"/>
+        <v>-0.22312897070047288</v>
       </c>
       <c r="AC35" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>not converged</v>
       </c>
       <c r="AD35" s="1">
         <f t="shared" si="4"/>
-        <v>-1.1716017673653945</v>
+        <v>-0.55537420585990538</v>
       </c>
     </row>
     <row r="36" spans="2:30" x14ac:dyDescent="0.25">
@@ -16837,74 +16885,76 @@
         <v>-2.5</v>
       </c>
       <c r="F36" s="23">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0.5</v>
       </c>
       <c r="G36" s="23">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>2</v>
       </c>
       <c r="I36" s="2">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K36" s="7">
         <f t="shared" si="6"/>
-        <v>7.0995581586513869E-3</v>
+        <v>-1.1156448535023645E-2</v>
       </c>
       <c r="L36" s="33">
-        <f t="shared" si="16"/>
-        <v>-0.35030309288944012</v>
+        <f t="shared" si="12"/>
+        <v>-1.1219048602548345</v>
       </c>
       <c r="M36" s="51">
-        <f t="shared" si="17"/>
-        <v>-0.17515154644472006</v>
+        <f t="shared" si="18"/>
+        <v>0.43904756987258275</v>
       </c>
       <c r="N36" s="1"/>
       <c r="O36" s="7">
-        <f t="shared" si="18"/>
-        <v>7.0995581586513869E-3</v>
+        <f t="shared" si="19"/>
+        <v>-1.1156448535023645E-2</v>
       </c>
       <c r="P36" s="33">
-        <f t="shared" si="19"/>
-        <v>0.64969690711055972</v>
+        <f t="shared" si="14"/>
+        <v>-0.12190486025483457</v>
       </c>
       <c r="Q36" s="51">
         <f t="shared" si="20"/>
-        <v>1.2993938142211194</v>
+        <v>0.7561902794903308</v>
       </c>
       <c r="S36" s="52">
         <f t="shared" si="21"/>
-        <v>1.1242422677763995</v>
+        <v>1.1952378493629134</v>
       </c>
       <c r="T36" s="8">
         <f t="shared" si="3"/>
-        <v>1.1242422677763995</v>
+        <v>1.1952378493629134</v>
       </c>
       <c r="U36" s="1"/>
       <c r="V36" s="9">
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="W36" s="1"/>
       <c r="X36" s="46">
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="Y36" s="53">
-        <f t="shared" si="8"/>
-        <v>0.12424226777639946</v>
+        <f t="shared" si="9"/>
+        <v>-0.19523784936291344</v>
       </c>
       <c r="Z36" s="1"/>
       <c r="AA36" s="10">
-        <f t="shared" si="9"/>
-        <v>0.12424226777639946</v>
+        <f t="shared" si="10"/>
+        <v>-0.19523784936291344</v>
       </c>
       <c r="AC36" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>not converged</v>
       </c>
       <c r="AD36" s="1">
         <f t="shared" si="4"/>
-        <v>-1.17515154644472</v>
+        <v>-0.56095243012741725</v>
       </c>
     </row>
     <row r="37" spans="2:30" x14ac:dyDescent="0.25">
@@ -16915,74 +16965,76 @@
         <v>-3</v>
       </c>
       <c r="F37" s="23">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0.5</v>
       </c>
       <c r="G37" s="23">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>2</v>
       </c>
       <c r="I37" s="2">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K37" s="7">
         <f t="shared" si="6"/>
-        <v>6.2121133888199736E-3</v>
+        <v>-9.7618924681456727E-3</v>
       </c>
       <c r="L37" s="33">
-        <f t="shared" si="16"/>
-        <v>-0.35651520627826011</v>
+        <f t="shared" si="12"/>
+        <v>-1.1316667527229802</v>
       </c>
       <c r="M37" s="51">
-        <f t="shared" si="17"/>
-        <v>-0.17825760313913006</v>
+        <f t="shared" si="18"/>
+        <v>0.43416662363850989</v>
       </c>
       <c r="N37" s="1"/>
       <c r="O37" s="7">
-        <f t="shared" si="18"/>
-        <v>6.2121133888199736E-3</v>
+        <f t="shared" si="19"/>
+        <v>-9.7618924681456727E-3</v>
       </c>
       <c r="P37" s="33">
-        <f t="shared" si="19"/>
-        <v>0.64348479372173972</v>
+        <f t="shared" si="14"/>
+        <v>-0.13166675272298026</v>
       </c>
       <c r="Q37" s="51">
         <f t="shared" si="20"/>
-        <v>1.2869695874434794</v>
+        <v>0.73666649455403954</v>
       </c>
       <c r="S37" s="52">
         <f t="shared" si="21"/>
-        <v>1.1087119843043494</v>
+        <v>1.1708331181925495</v>
       </c>
       <c r="T37" s="8">
         <f t="shared" si="3"/>
-        <v>1.1087119843043494</v>
+        <v>1.1708331181925495</v>
       </c>
       <c r="U37" s="1"/>
       <c r="V37" s="9">
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="W37" s="1"/>
       <c r="X37" s="46">
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="Y37" s="53">
-        <f t="shared" si="8"/>
-        <v>0.10871198430434936</v>
+        <f t="shared" si="9"/>
+        <v>-0.17083311819254954</v>
       </c>
       <c r="Z37" s="1"/>
       <c r="AA37" s="10">
-        <f t="shared" si="9"/>
-        <v>0.10871198430434936</v>
+        <f t="shared" si="10"/>
+        <v>-0.17083311819254954</v>
       </c>
       <c r="AC37" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>not converged</v>
       </c>
       <c r="AD37" s="1">
         <f t="shared" si="4"/>
-        <v>-1.1782576031391301</v>
+        <v>-0.56583337636149011</v>
       </c>
     </row>
     <row r="38" spans="2:30" x14ac:dyDescent="0.25">
@@ -16993,74 +17045,76 @@
         <v>-3.5</v>
       </c>
       <c r="F38" s="23">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0.5</v>
       </c>
       <c r="G38" s="23">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>2</v>
       </c>
       <c r="I38" s="2">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K38" s="7">
         <f t="shared" si="6"/>
-        <v>5.4355992152174681E-3</v>
+        <v>-8.5416559096274779E-3</v>
       </c>
       <c r="L38" s="33">
-        <f t="shared" si="16"/>
-        <v>-0.36195080549347758</v>
+        <f t="shared" si="12"/>
+        <v>-1.1402084086326076</v>
       </c>
       <c r="M38" s="51">
-        <f t="shared" si="17"/>
-        <v>-0.18097540274673879</v>
+        <f t="shared" si="18"/>
+        <v>0.42989579568369618</v>
       </c>
       <c r="N38" s="1"/>
       <c r="O38" s="7">
-        <f t="shared" si="18"/>
-        <v>5.4355992152174681E-3</v>
+        <f t="shared" si="19"/>
+        <v>-8.5416559096274779E-3</v>
       </c>
       <c r="P38" s="33">
-        <f t="shared" si="19"/>
-        <v>0.63804919450652231</v>
+        <f t="shared" si="14"/>
+        <v>-0.14020840863260772</v>
       </c>
       <c r="Q38" s="51">
         <f t="shared" si="20"/>
-        <v>1.2760983890130446</v>
+        <v>0.7195831827347845</v>
       </c>
       <c r="S38" s="52">
         <f t="shared" si="21"/>
-        <v>1.0951229862663059</v>
+        <v>1.1494789784184807</v>
       </c>
       <c r="T38" s="8">
         <f t="shared" si="3"/>
-        <v>1.0951229862663059</v>
+        <v>1.1494789784184807</v>
       </c>
       <c r="U38" s="1"/>
       <c r="V38" s="9">
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="W38" s="1"/>
       <c r="X38" s="46">
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="Y38" s="53">
-        <f t="shared" si="8"/>
-        <v>9.5122986266305887E-2</v>
+        <f t="shared" si="9"/>
+        <v>-0.14947897841848068</v>
       </c>
       <c r="Z38" s="1"/>
       <c r="AA38" s="10">
-        <f t="shared" si="9"/>
-        <v>9.5122986266305887E-2</v>
+        <f t="shared" si="10"/>
+        <v>-0.14947897841848068</v>
       </c>
       <c r="AC38" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>not converged</v>
       </c>
       <c r="AD38" s="1">
         <f t="shared" si="4"/>
-        <v>-1.1809754027467387</v>
+        <v>-0.57010420431630382</v>
       </c>
     </row>
     <row r="39" spans="2:30" x14ac:dyDescent="0.25">
@@ -17071,74 +17125,76 @@
         <v>-4</v>
       </c>
       <c r="F39" s="23">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0.5</v>
       </c>
       <c r="G39" s="23">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>2</v>
       </c>
       <c r="I39" s="2">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K39" s="7">
         <f t="shared" si="6"/>
-        <v>4.756149313315295E-3</v>
+        <v>-7.4739489209240343E-3</v>
       </c>
       <c r="L39" s="33">
-        <f t="shared" si="16"/>
-        <v>-0.36670695480679288</v>
+        <f t="shared" si="12"/>
+        <v>-1.1476823575535318</v>
       </c>
       <c r="M39" s="51">
-        <f t="shared" si="17"/>
-        <v>-0.18335347740339644</v>
+        <f t="shared" si="18"/>
+        <v>0.42615882122323412</v>
       </c>
       <c r="N39" s="1"/>
       <c r="O39" s="7">
-        <f t="shared" si="18"/>
-        <v>4.756149313315295E-3</v>
+        <f t="shared" si="19"/>
+        <v>-7.4739489209240343E-3</v>
       </c>
       <c r="P39" s="33">
-        <f t="shared" si="19"/>
-        <v>0.63329304519320706</v>
+        <f t="shared" si="14"/>
+        <v>-0.14768235755353176</v>
       </c>
       <c r="Q39" s="51">
         <f t="shared" si="20"/>
-        <v>1.2665860903864141</v>
+        <v>0.70463528489293648</v>
       </c>
       <c r="S39" s="52">
         <f t="shared" si="21"/>
-        <v>1.0832326129830177</v>
+        <v>1.1307941061161706</v>
       </c>
       <c r="T39" s="8">
         <f t="shared" si="3"/>
-        <v>1.0832326129830177</v>
+        <v>1.1307941061161706</v>
       </c>
       <c r="U39" s="1"/>
       <c r="V39" s="9">
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="W39" s="1"/>
       <c r="X39" s="46">
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="Y39" s="53">
-        <f t="shared" si="8"/>
-        <v>8.3232612983017651E-2</v>
+        <f t="shared" si="9"/>
+        <v>-0.13079410611617059</v>
       </c>
       <c r="Z39" s="1"/>
       <c r="AA39" s="10">
-        <f t="shared" si="9"/>
-        <v>8.3232612983017651E-2</v>
+        <f t="shared" si="10"/>
+        <v>-0.13079410611617059</v>
       </c>
       <c r="AC39" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>not converged</v>
       </c>
       <c r="AD39" s="1">
         <f t="shared" si="4"/>
-        <v>-1.1833534774033965</v>
+        <v>-0.57384117877676588</v>
       </c>
     </row>
     <row r="40" spans="2:30" x14ac:dyDescent="0.25">
@@ -17149,74 +17205,76 @@
         <v>-4.5</v>
       </c>
       <c r="F40" s="23">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0.5</v>
       </c>
       <c r="G40" s="23">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>2</v>
       </c>
       <c r="I40" s="2">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K40" s="7">
         <f t="shared" si="6"/>
-        <v>4.1616306491508827E-3</v>
+        <v>-6.5397053058085302E-3</v>
       </c>
       <c r="L40" s="33">
-        <f t="shared" si="16"/>
-        <v>-0.37086858545594376</v>
+        <f t="shared" si="12"/>
+        <v>-1.1542220628593403</v>
       </c>
       <c r="M40" s="51">
-        <f t="shared" si="17"/>
-        <v>-0.18543429272797188</v>
+        <f t="shared" si="18"/>
+        <v>0.42288896857032987</v>
       </c>
       <c r="N40" s="1"/>
       <c r="O40" s="7">
-        <f t="shared" si="18"/>
-        <v>4.1616306491508827E-3</v>
+        <f t="shared" si="19"/>
+        <v>-6.5397053058085302E-3</v>
       </c>
       <c r="P40" s="33">
-        <f t="shared" si="19"/>
-        <v>0.62913141454405619</v>
+        <f t="shared" si="14"/>
+        <v>-0.15422206285934029</v>
       </c>
       <c r="Q40" s="51">
         <f t="shared" si="20"/>
-        <v>1.2582628290881124</v>
+        <v>0.69155587428131948</v>
       </c>
       <c r="S40" s="52">
         <f t="shared" si="21"/>
-        <v>1.0728285363601404</v>
+        <v>1.1144448428516494</v>
       </c>
       <c r="T40" s="8">
         <f t="shared" si="3"/>
-        <v>1.0728285363601404</v>
+        <v>1.1144448428516494</v>
       </c>
       <c r="U40" s="1"/>
       <c r="V40" s="9">
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="W40" s="1"/>
       <c r="X40" s="46">
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="Y40" s="53">
-        <f t="shared" si="8"/>
-        <v>7.2828536360140417E-2</v>
+        <f t="shared" si="9"/>
+        <v>-0.11444484285164935</v>
       </c>
       <c r="Z40" s="1"/>
       <c r="AA40" s="10">
-        <f t="shared" si="9"/>
-        <v>7.2828536360140417E-2</v>
+        <f t="shared" si="10"/>
+        <v>-0.11444484285164935</v>
       </c>
       <c r="AC40" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>not converged</v>
       </c>
       <c r="AD40" s="1">
         <f t="shared" si="4"/>
-        <v>-1.185434292727972</v>
+        <v>-0.57711103142967013</v>
       </c>
     </row>
     <row r="41" spans="2:30" x14ac:dyDescent="0.25">
@@ -17227,74 +17285,76 @@
         <v>-5</v>
       </c>
       <c r="F41" s="23">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0.5</v>
       </c>
       <c r="G41" s="23">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>2</v>
       </c>
       <c r="I41" s="2">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K41" s="7">
         <f t="shared" si="6"/>
-        <v>3.6414268180070212E-3</v>
+        <v>-5.7222421425824682E-3</v>
       </c>
       <c r="L41" s="33">
-        <f t="shared" si="16"/>
-        <v>-0.37451001227395075</v>
+        <f t="shared" si="12"/>
+        <v>-1.1599443050019227</v>
       </c>
       <c r="M41" s="51">
-        <f t="shared" si="17"/>
-        <v>-0.18725500613697538</v>
+        <f t="shared" si="18"/>
+        <v>0.42002784749903865</v>
       </c>
       <c r="N41" s="1"/>
       <c r="O41" s="7">
-        <f t="shared" si="18"/>
-        <v>3.6414268180070212E-3</v>
+        <f t="shared" si="19"/>
+        <v>-5.7222421425824682E-3</v>
       </c>
       <c r="P41" s="33">
-        <f t="shared" si="19"/>
-        <v>0.62548998772604913</v>
+        <f t="shared" si="14"/>
+        <v>-0.15994430500192275</v>
       </c>
       <c r="Q41" s="51">
         <f t="shared" si="20"/>
-        <v>1.2509799754520983</v>
+        <v>0.6801113899961545</v>
       </c>
       <c r="S41" s="52">
         <f t="shared" si="21"/>
-        <v>1.0637249693151229</v>
+        <v>1.1001392374951933</v>
       </c>
       <c r="T41" s="8">
         <f t="shared" si="3"/>
-        <v>1.0637249693151229</v>
+        <v>1.1001392374951933</v>
       </c>
       <c r="U41" s="1"/>
       <c r="V41" s="9">
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="W41" s="1"/>
       <c r="X41" s="46">
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="Y41" s="53">
-        <f t="shared" si="8"/>
-        <v>6.3724969315122948E-2</v>
+        <f t="shared" si="9"/>
+        <v>-0.10013923749519327</v>
       </c>
       <c r="Z41" s="1"/>
       <c r="AA41" s="10">
-        <f t="shared" si="9"/>
-        <v>6.3724969315122948E-2</v>
+        <f t="shared" si="10"/>
+        <v>-0.10013923749519327</v>
       </c>
       <c r="AC41" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>not converged</v>
       </c>
       <c r="AD41" s="1">
         <f t="shared" si="4"/>
-        <v>-1.1872550061369753</v>
+        <v>-0.57997215250096135</v>
       </c>
     </row>
     <row r="42" spans="2:30" x14ac:dyDescent="0.25">
@@ -17305,74 +17365,76 @@
         <v>-5.5</v>
       </c>
       <c r="F42" s="23">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0.5</v>
       </c>
       <c r="G42" s="23">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>2</v>
       </c>
       <c r="I42" s="2">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K42" s="7">
         <f t="shared" si="6"/>
-        <v>3.1862484657561477E-3</v>
+        <v>-5.0069618747596639E-3</v>
       </c>
       <c r="L42" s="33">
-        <f t="shared" si="16"/>
-        <v>-0.37769626073970691</v>
+        <f t="shared" si="12"/>
+        <v>-1.1649512668766824</v>
       </c>
       <c r="M42" s="51">
-        <f t="shared" si="17"/>
-        <v>-0.18884813036985346</v>
+        <f t="shared" si="18"/>
+        <v>0.41752436656165881</v>
       </c>
       <c r="N42" s="1"/>
       <c r="O42" s="7">
-        <f t="shared" si="18"/>
-        <v>3.1862484657561477E-3</v>
+        <f t="shared" si="19"/>
+        <v>-5.0069618747596639E-3</v>
       </c>
       <c r="P42" s="33">
-        <f t="shared" si="19"/>
-        <v>0.62230373926029303</v>
+        <f t="shared" si="14"/>
+        <v>-0.16495126687668241</v>
       </c>
       <c r="Q42" s="51">
         <f t="shared" si="20"/>
-        <v>1.2446074785205861</v>
+        <v>0.67009746624663524</v>
       </c>
       <c r="S42" s="52">
         <f t="shared" si="21"/>
-        <v>1.0557593481507326</v>
+        <v>1.0876218328082941</v>
       </c>
       <c r="T42" s="8">
         <f t="shared" si="3"/>
-        <v>1.0557593481507326</v>
+        <v>1.0876218328082941</v>
       </c>
       <c r="U42" s="1"/>
       <c r="V42" s="9">
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="W42" s="1"/>
       <c r="X42" s="46">
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="Y42" s="53">
-        <f t="shared" si="8"/>
-        <v>5.5759348150732579E-2</v>
+        <f t="shared" si="9"/>
+        <v>-8.7621832808294053E-2</v>
       </c>
       <c r="Z42" s="1"/>
       <c r="AA42" s="10">
-        <f t="shared" si="9"/>
-        <v>5.5759348150732579E-2</v>
+        <f t="shared" si="10"/>
+        <v>-8.7621832808294053E-2</v>
       </c>
       <c r="AC42" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>not converged</v>
       </c>
       <c r="AD42" s="1">
         <f t="shared" si="4"/>
-        <v>-1.1888481303698535</v>
+        <v>-0.58247563343834119</v>
       </c>
     </row>
     <row r="43" spans="2:30" x14ac:dyDescent="0.25">
@@ -17383,74 +17445,76 @@
         <v>-6</v>
       </c>
       <c r="F43" s="23">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0.5</v>
       </c>
       <c r="G43" s="23">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>2</v>
       </c>
       <c r="I43" s="2">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K43" s="7">
         <f t="shared" si="6"/>
-        <v>2.7879674075366291E-3</v>
+        <v>-4.3810916404147032E-3</v>
       </c>
       <c r="L43" s="33">
-        <f t="shared" si="16"/>
-        <v>-0.38048422814724353</v>
+        <f t="shared" si="12"/>
+        <v>-1.1693323585170972</v>
       </c>
       <c r="M43" s="51">
-        <f t="shared" si="17"/>
-        <v>-0.19024211407362177</v>
+        <f t="shared" si="18"/>
+        <v>0.41533382074145142</v>
       </c>
       <c r="N43" s="1"/>
       <c r="O43" s="7">
-        <f t="shared" si="18"/>
-        <v>2.7879674075366291E-3</v>
+        <f t="shared" si="19"/>
+        <v>-4.3810916404147032E-3</v>
       </c>
       <c r="P43" s="33">
-        <f t="shared" si="19"/>
-        <v>0.61951577185275641</v>
+        <f t="shared" si="14"/>
+        <v>-0.1693323585170971</v>
       </c>
       <c r="Q43" s="51">
         <f t="shared" si="20"/>
-        <v>1.2390315437055128</v>
+        <v>0.66133528296580579</v>
       </c>
       <c r="S43" s="52">
         <f t="shared" si="21"/>
-        <v>1.0487894296318911</v>
+        <v>1.0766691037072573</v>
       </c>
       <c r="T43" s="14">
         <f t="shared" si="3"/>
-        <v>1.0487894296318911</v>
+        <v>1.0766691037072573</v>
       </c>
       <c r="U43" s="1"/>
       <c r="V43" s="9">
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="W43" s="1"/>
       <c r="X43" s="46">
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="Y43" s="53">
-        <f t="shared" si="8"/>
-        <v>4.8789429631891146E-2</v>
+        <f t="shared" si="9"/>
+        <v>-7.6669103707257324E-2</v>
       </c>
       <c r="Z43" s="1"/>
       <c r="AA43" s="14">
-        <f t="shared" si="9"/>
-        <v>4.8789429631891146E-2</v>
+        <f t="shared" si="10"/>
+        <v>-7.6669103707257324E-2</v>
       </c>
       <c r="AC43" t="str">
-        <f t="shared" si="10"/>
-        <v>converged</v>
+        <f t="shared" si="11"/>
+        <v>not converged</v>
       </c>
       <c r="AD43" s="1">
         <f t="shared" si="4"/>
-        <v>-1.1902421140736217</v>
+        <v>-0.58466617925854858</v>
       </c>
     </row>
     <row r="44" spans="2:30" x14ac:dyDescent="0.25">
@@ -17461,74 +17525,76 @@
         <v>-6.5</v>
       </c>
       <c r="F44" s="23">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0.5</v>
       </c>
       <c r="G44" s="23">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>2</v>
       </c>
       <c r="I44" s="2">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K44" s="7">
         <f t="shared" ref="K44:K68" si="22">B$4*AA43</f>
-        <v>2.4394714815945575E-3</v>
+        <v>-3.8334551853628665E-3</v>
       </c>
       <c r="L44" s="33">
-        <f t="shared" si="16"/>
-        <v>-0.3829236996288381</v>
+        <f t="shared" si="12"/>
+        <v>-1.1731658137024601</v>
       </c>
       <c r="M44" s="51">
-        <f t="shared" si="17"/>
-        <v>-0.19146184981441905</v>
+        <f t="shared" si="18"/>
+        <v>0.41341709314876995</v>
       </c>
       <c r="N44" s="1"/>
       <c r="O44" s="7">
-        <f t="shared" si="18"/>
-        <v>2.4394714815945575E-3</v>
+        <f t="shared" si="19"/>
+        <v>-3.8334551853628665E-3</v>
       </c>
       <c r="P44" s="33">
-        <f t="shared" si="19"/>
-        <v>0.6170763003711619</v>
+        <f t="shared" si="14"/>
+        <v>-0.17316581370245998</v>
       </c>
       <c r="Q44" s="51">
         <f t="shared" si="20"/>
-        <v>1.2341526007423238</v>
+        <v>0.65366837259508004</v>
       </c>
       <c r="S44" s="52">
         <f t="shared" si="21"/>
-        <v>1.0426907509279046</v>
+        <v>1.06708546574385</v>
       </c>
       <c r="T44" s="14">
         <f t="shared" si="3"/>
-        <v>1.0426907509279046</v>
+        <v>1.06708546574385</v>
       </c>
       <c r="U44" s="1"/>
       <c r="V44" s="9">
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="W44" s="1"/>
       <c r="X44" s="46">
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="Y44" s="53">
-        <f t="shared" si="8"/>
-        <v>4.2690750927904642E-2</v>
+        <f t="shared" si="9"/>
+        <v>-6.7085465743849992E-2</v>
       </c>
       <c r="Z44" s="1"/>
       <c r="AA44" s="14">
-        <f t="shared" si="9"/>
-        <v>4.2690750927904642E-2</v>
+        <f t="shared" si="10"/>
+        <v>-6.7085465743849992E-2</v>
       </c>
       <c r="AC44" t="str">
-        <f t="shared" si="10"/>
-        <v>converged</v>
+        <f t="shared" si="11"/>
+        <v>not converged</v>
       </c>
       <c r="AD44" s="1">
         <f t="shared" si="4"/>
-        <v>-1.1914618498144192</v>
+        <v>-0.58658290685123005</v>
       </c>
     </row>
     <row r="45" spans="2:30" x14ac:dyDescent="0.25">
@@ -17539,74 +17605,76 @@
         <v>-7</v>
       </c>
       <c r="F45" s="23">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0.5</v>
       </c>
       <c r="G45" s="23">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>2</v>
       </c>
       <c r="I45" s="2">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K45" s="7">
         <f t="shared" si="22"/>
-        <v>2.1345375463952322E-3</v>
+        <v>-3.3542732871924999E-3</v>
       </c>
       <c r="L45" s="33">
-        <f t="shared" si="16"/>
-        <v>-0.38505823717523335</v>
+        <f t="shared" si="12"/>
+        <v>-1.1765200869896526</v>
       </c>
       <c r="M45" s="51">
-        <f t="shared" si="17"/>
-        <v>-0.19252911858761668</v>
+        <f t="shared" si="18"/>
+        <v>0.4117399565051737</v>
       </c>
       <c r="N45" s="1"/>
       <c r="O45" s="7">
-        <f t="shared" si="18"/>
-        <v>2.1345375463952322E-3</v>
+        <f t="shared" si="19"/>
+        <v>-3.3542732871924999E-3</v>
       </c>
       <c r="P45" s="33">
-        <f t="shared" si="19"/>
-        <v>0.61494176282476665</v>
+        <f t="shared" si="14"/>
+        <v>-0.17652008698965249</v>
       </c>
       <c r="Q45" s="51">
         <f t="shared" si="20"/>
-        <v>1.2298835256495333</v>
+        <v>0.64695982602069502</v>
       </c>
       <c r="S45" s="52">
         <f t="shared" si="21"/>
-        <v>1.0373544070619167</v>
+        <v>1.0586997825258688</v>
       </c>
       <c r="T45" s="14">
         <f t="shared" si="3"/>
-        <v>1.0373544070619167</v>
+        <v>1.0586997825258688</v>
       </c>
       <c r="U45" s="1"/>
       <c r="V45" s="9">
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="W45" s="1"/>
       <c r="X45" s="46">
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="Y45" s="53">
-        <f t="shared" si="8"/>
-        <v>3.7354407061916728E-2</v>
+        <f t="shared" si="9"/>
+        <v>-5.8699782525868827E-2</v>
       </c>
       <c r="Z45" s="1"/>
       <c r="AA45" s="14">
-        <f t="shared" si="9"/>
-        <v>3.7354407061916728E-2</v>
+        <f t="shared" si="10"/>
+        <v>-5.8699782525868827E-2</v>
       </c>
       <c r="AC45" t="str">
-        <f t="shared" si="10"/>
-        <v>converged</v>
+        <f t="shared" si="11"/>
+        <v>not converged</v>
       </c>
       <c r="AD45" s="1">
         <f t="shared" si="4"/>
-        <v>-1.1925291185876166</v>
+        <v>-0.5882600434948263</v>
       </c>
     </row>
     <row r="46" spans="2:30" x14ac:dyDescent="0.25">
@@ -17617,74 +17685,76 @@
         <v>-7.5</v>
       </c>
       <c r="F46" s="23">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0.5</v>
       </c>
       <c r="G46" s="23">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>2</v>
       </c>
       <c r="I46" s="2">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K46" s="7">
         <f t="shared" si="22"/>
-        <v>1.8677203530958364E-3</v>
+        <v>-2.9349891262934417E-3</v>
       </c>
       <c r="L46" s="33">
-        <f t="shared" si="16"/>
-        <v>-0.3869259575283292</v>
+        <f t="shared" si="12"/>
+        <v>-1.1794550761159461</v>
       </c>
       <c r="M46" s="51">
-        <f t="shared" si="17"/>
-        <v>-0.1934629787641646</v>
+        <f t="shared" si="18"/>
+        <v>0.41027246194202693</v>
       </c>
       <c r="N46" s="1"/>
       <c r="O46" s="7">
-        <f t="shared" si="18"/>
-        <v>1.8677203530958364E-3</v>
+        <f t="shared" si="19"/>
+        <v>-2.9349891262934417E-3</v>
       </c>
       <c r="P46" s="33">
-        <f t="shared" si="19"/>
-        <v>0.61307404247167085</v>
+        <f t="shared" si="14"/>
+        <v>-0.17945507611594594</v>
       </c>
       <c r="Q46" s="51">
         <f t="shared" si="20"/>
-        <v>1.2261480849433417</v>
+        <v>0.64108984776810818</v>
       </c>
       <c r="S46" s="52">
         <f t="shared" si="21"/>
-        <v>1.0326851061791771</v>
+        <v>1.051362309710135</v>
       </c>
       <c r="T46" s="14">
         <f t="shared" si="3"/>
-        <v>1.0326851061791771</v>
+        <v>1.051362309710135</v>
       </c>
       <c r="U46" s="1"/>
       <c r="V46" s="9">
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="W46" s="1"/>
       <c r="X46" s="46">
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="Y46" s="53">
-        <f t="shared" si="8"/>
-        <v>3.2685106179177081E-2</v>
+        <f t="shared" si="9"/>
+        <v>-5.1362309710135001E-2</v>
       </c>
       <c r="Z46" s="1"/>
       <c r="AA46" s="14">
-        <f t="shared" si="9"/>
-        <v>3.2685106179177081E-2</v>
+        <f t="shared" si="10"/>
+        <v>-5.1362309710135001E-2</v>
       </c>
       <c r="AC46" t="str">
-        <f t="shared" si="10"/>
-        <v>converged</v>
+        <f t="shared" si="11"/>
+        <v>not converged</v>
       </c>
       <c r="AD46" s="1">
         <f t="shared" si="4"/>
-        <v>-1.1934629787641646</v>
+        <v>-0.58972753805797307</v>
       </c>
     </row>
     <row r="47" spans="2:30" x14ac:dyDescent="0.25">
@@ -17695,74 +17765,76 @@
         <v>-8</v>
       </c>
       <c r="F47" s="23">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0.5</v>
       </c>
       <c r="G47" s="23">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>2</v>
       </c>
       <c r="I47" s="2">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K47" s="7">
         <f t="shared" si="22"/>
-        <v>1.6342553089588542E-3</v>
+        <v>-2.5681154855067504E-3</v>
       </c>
       <c r="L47" s="33">
-        <f t="shared" si="16"/>
-        <v>-0.38856021283728803</v>
+        <f t="shared" si="12"/>
+        <v>-1.182023191601453</v>
       </c>
       <c r="M47" s="51">
-        <f t="shared" si="17"/>
-        <v>-0.19428010641864402</v>
+        <f t="shared" si="18"/>
+        <v>0.40898840419927351</v>
       </c>
       <c r="N47" s="1"/>
       <c r="O47" s="7">
-        <f t="shared" si="18"/>
-        <v>1.6342553089588542E-3</v>
+        <f t="shared" si="19"/>
+        <v>-2.5681154855067504E-3</v>
       </c>
       <c r="P47" s="33">
-        <f t="shared" si="19"/>
-        <v>0.61143978716271197</v>
+        <f t="shared" si="14"/>
+        <v>-0.18202319160145269</v>
       </c>
       <c r="Q47" s="51">
         <f t="shared" si="20"/>
-        <v>1.2228795743254239</v>
+        <v>0.63595361679709461</v>
       </c>
       <c r="S47" s="52">
         <f t="shared" si="21"/>
-        <v>1.0285994679067798</v>
+        <v>1.044942020996368</v>
       </c>
       <c r="T47" s="14">
         <f t="shared" si="3"/>
-        <v>1.0285994679067798</v>
+        <v>1.044942020996368</v>
       </c>
       <c r="U47" s="1"/>
       <c r="V47" s="9">
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="W47" s="1"/>
       <c r="X47" s="46">
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="Y47" s="53">
-        <f t="shared" si="8"/>
-        <v>2.8599467906779807E-2</v>
+        <f t="shared" si="9"/>
+        <v>-4.4942020996368015E-2</v>
       </c>
       <c r="Z47" s="1"/>
       <c r="AA47" s="14">
-        <f t="shared" si="9"/>
-        <v>2.8599467906779807E-2</v>
+        <f t="shared" si="10"/>
+        <v>-4.4942020996368015E-2</v>
       </c>
       <c r="AC47" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>converged</v>
       </c>
       <c r="AD47" s="1">
         <f t="shared" si="4"/>
-        <v>-1.1942801064186441</v>
+        <v>-0.59101159580072649</v>
       </c>
     </row>
     <row r="48" spans="2:30" x14ac:dyDescent="0.25">
@@ -17773,74 +17845,76 @@
         <v>-8.5</v>
       </c>
       <c r="F48" s="23">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0.5</v>
       </c>
       <c r="G48" s="23">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>2</v>
       </c>
       <c r="I48" s="2">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K48" s="7">
         <f t="shared" si="22"/>
-        <v>1.4299733953389905E-3</v>
+        <v>-2.2471010498184008E-3</v>
       </c>
       <c r="L48" s="33">
-        <f t="shared" si="16"/>
-        <v>-0.38999018623262705</v>
+        <f t="shared" si="12"/>
+        <v>-1.1842702926512714</v>
       </c>
       <c r="M48" s="51">
-        <f t="shared" si="17"/>
-        <v>-0.19499509311631352</v>
+        <f t="shared" si="18"/>
+        <v>0.40786485367436431</v>
       </c>
       <c r="N48" s="1"/>
       <c r="O48" s="7">
-        <f t="shared" si="18"/>
-        <v>1.4299733953389905E-3</v>
+        <f t="shared" si="19"/>
+        <v>-2.2471010498184008E-3</v>
       </c>
       <c r="P48" s="33">
-        <f t="shared" si="19"/>
-        <v>0.61000981376737295</v>
+        <f t="shared" si="14"/>
+        <v>-0.18427029265127109</v>
       </c>
       <c r="Q48" s="51">
         <f t="shared" si="20"/>
-        <v>1.2200196275347459</v>
+        <v>0.63145941469745781</v>
       </c>
       <c r="S48" s="52">
         <f t="shared" si="21"/>
-        <v>1.0250245344184323</v>
+        <v>1.0393242683718222</v>
       </c>
       <c r="T48" s="14">
         <f t="shared" si="3"/>
-        <v>1.0250245344184323</v>
+        <v>1.0393242683718222</v>
       </c>
       <c r="U48" s="1"/>
       <c r="V48" s="9">
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="W48" s="1"/>
       <c r="X48" s="46">
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="Y48" s="53">
-        <f t="shared" si="8"/>
-        <v>2.5024534418432332E-2</v>
+        <f t="shared" si="9"/>
+        <v>-3.9324268371822235E-2</v>
       </c>
       <c r="Z48" s="1"/>
       <c r="AA48" s="14">
-        <f t="shared" si="9"/>
-        <v>2.5024534418432332E-2</v>
+        <f t="shared" si="10"/>
+        <v>-3.9324268371822235E-2</v>
       </c>
       <c r="AC48" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>converged</v>
       </c>
       <c r="AD48" s="1">
         <f t="shared" si="4"/>
-        <v>-1.1949950931163136</v>
+        <v>-0.59213514632563569</v>
       </c>
     </row>
     <row r="49" spans="2:44" x14ac:dyDescent="0.25">
@@ -17851,74 +17925,76 @@
         <v>-9</v>
       </c>
       <c r="F49" s="23">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0.5</v>
       </c>
       <c r="G49" s="23">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>2</v>
       </c>
       <c r="I49" s="2">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K49" s="7">
         <f t="shared" si="22"/>
-        <v>1.2512267209216167E-3</v>
+        <v>-1.9662134185911119E-3</v>
       </c>
       <c r="L49" s="33">
-        <f t="shared" si="16"/>
-        <v>-0.39124141295354864</v>
+        <f t="shared" si="12"/>
+        <v>-1.1862365060698625</v>
       </c>
       <c r="M49" s="51">
-        <f t="shared" si="17"/>
-        <v>-0.19562070647677432</v>
+        <f t="shared" si="18"/>
+        <v>0.40688174696506874</v>
       </c>
       <c r="N49" s="1"/>
       <c r="O49" s="7">
-        <f t="shared" si="18"/>
-        <v>1.2512267209216167E-3</v>
+        <f t="shared" si="19"/>
+        <v>-1.9662134185911119E-3</v>
       </c>
       <c r="P49" s="33">
-        <f t="shared" si="19"/>
-        <v>0.60875858704645136</v>
+        <f t="shared" si="14"/>
+        <v>-0.1862365060698622</v>
       </c>
       <c r="Q49" s="51">
         <f t="shared" si="20"/>
-        <v>1.2175171740929027</v>
+        <v>0.62752698786027561</v>
       </c>
       <c r="S49" s="52">
         <f t="shared" si="21"/>
-        <v>1.0218964676161284</v>
+        <v>1.0344087348253443</v>
       </c>
       <c r="T49" s="14">
         <f t="shared" si="3"/>
-        <v>1.0218964676161284</v>
+        <v>1.0344087348253443</v>
       </c>
       <c r="U49" s="1"/>
       <c r="V49" s="9">
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="W49" s="1"/>
       <c r="X49" s="46">
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="Y49" s="53">
-        <f t="shared" si="8"/>
-        <v>2.1896467616128401E-2</v>
+        <f t="shared" si="9"/>
+        <v>-3.4408734825344345E-2</v>
       </c>
       <c r="Z49" s="1"/>
       <c r="AA49" s="14">
-        <f t="shared" si="9"/>
-        <v>2.1896467616128401E-2</v>
+        <f t="shared" si="10"/>
+        <v>-3.4408734825344345E-2</v>
       </c>
       <c r="AC49" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>converged</v>
       </c>
       <c r="AD49" s="1">
         <f t="shared" si="4"/>
-        <v>-1.1956207064767743</v>
+        <v>-0.59311825303493126</v>
       </c>
     </row>
     <row r="50" spans="2:44" x14ac:dyDescent="0.25">
@@ -17929,74 +18005,76 @@
         <v>-9.5</v>
       </c>
       <c r="F50" s="23">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0.5</v>
       </c>
       <c r="G50" s="23">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>2</v>
       </c>
       <c r="I50" s="2">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K50" s="7">
         <f t="shared" si="22"/>
-        <v>1.09482338080642E-3</v>
+        <v>-1.7204367412672174E-3</v>
       </c>
       <c r="L50" s="33">
-        <f t="shared" si="16"/>
-        <v>-0.39233623633435505</v>
+        <f t="shared" si="12"/>
+        <v>-1.1879569428111298</v>
       </c>
       <c r="M50" s="51">
-        <f t="shared" si="17"/>
-        <v>-0.19616811816717752</v>
+        <f t="shared" si="18"/>
+        <v>0.40602152859443508</v>
       </c>
       <c r="N50" s="1"/>
       <c r="O50" s="7">
-        <f t="shared" si="18"/>
-        <v>1.09482338080642E-3</v>
+        <f t="shared" si="19"/>
+        <v>-1.7204367412672174E-3</v>
       </c>
       <c r="P50" s="33">
-        <f t="shared" si="19"/>
-        <v>0.6076637636656449</v>
+        <f t="shared" si="14"/>
+        <v>-0.1879569428111294</v>
       </c>
       <c r="Q50" s="51">
         <f t="shared" si="20"/>
-        <v>1.2153275273312898</v>
+        <v>0.6240861143777412</v>
       </c>
       <c r="S50" s="52">
         <f t="shared" si="21"/>
-        <v>1.0191594091641123</v>
+        <v>1.0301076429721763</v>
       </c>
       <c r="T50" s="14">
         <f t="shared" si="3"/>
-        <v>1.0191594091641123</v>
+        <v>1.0301076429721763</v>
       </c>
       <c r="U50" s="1"/>
       <c r="V50" s="9">
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="W50" s="1"/>
       <c r="X50" s="46">
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="Y50" s="53">
-        <f t="shared" si="8"/>
-        <v>1.9159409164112295E-2</v>
+        <f t="shared" si="9"/>
+        <v>-3.0107642972176274E-2</v>
       </c>
       <c r="Z50" s="1"/>
       <c r="AA50" s="14">
-        <f t="shared" si="9"/>
-        <v>1.9159409164112295E-2</v>
+        <f t="shared" si="10"/>
+        <v>-3.0107642972176274E-2</v>
       </c>
       <c r="AC50" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>converged</v>
       </c>
       <c r="AD50" s="1">
         <f t="shared" si="4"/>
-        <v>-1.1961681181671775</v>
+        <v>-0.59397847140556492</v>
       </c>
     </row>
     <row r="51" spans="2:44" x14ac:dyDescent="0.25">
@@ -18007,74 +18085,76 @@
         <v>-10</v>
       </c>
       <c r="F51" s="23">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0.5</v>
       </c>
       <c r="G51" s="23">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>2</v>
       </c>
       <c r="I51" s="2">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K51" s="7">
         <f t="shared" si="22"/>
-        <v>9.5797045820561477E-4</v>
+        <v>-1.5053821486088138E-3</v>
       </c>
       <c r="L51" s="33">
-        <f t="shared" si="16"/>
-        <v>-0.39329420679256066</v>
+        <f t="shared" si="12"/>
+        <v>-1.1894623249597387</v>
       </c>
       <c r="M51" s="51">
-        <f t="shared" si="17"/>
-        <v>-0.19664710339628033</v>
+        <f t="shared" si="18"/>
+        <v>0.40526883752013065</v>
       </c>
       <c r="N51" s="1"/>
       <c r="O51" s="7">
-        <f t="shared" si="18"/>
-        <v>9.5797045820561477E-4</v>
+        <f t="shared" si="19"/>
+        <v>-1.5053821486088138E-3</v>
       </c>
       <c r="P51" s="33">
-        <f t="shared" si="19"/>
-        <v>0.60670579320743934</v>
+        <f t="shared" si="14"/>
+        <v>-0.18946232495973822</v>
       </c>
       <c r="Q51" s="51">
         <f t="shared" si="20"/>
-        <v>1.2134115864148787</v>
+        <v>0.6210753500805235</v>
       </c>
       <c r="S51" s="52">
         <f t="shared" si="21"/>
-        <v>1.0167644830185982</v>
+        <v>1.026344187600654</v>
       </c>
       <c r="T51" s="14">
         <f t="shared" si="3"/>
-        <v>1.0167644830185982</v>
+        <v>1.026344187600654</v>
       </c>
       <c r="U51" s="1"/>
       <c r="V51" s="9">
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="W51" s="1"/>
       <c r="X51" s="46">
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="Y51" s="53">
-        <f t="shared" si="8"/>
-        <v>1.6764483018598231E-2</v>
+        <f t="shared" si="9"/>
+        <v>-2.6344187600654045E-2</v>
       </c>
       <c r="Z51" s="1"/>
       <c r="AA51" s="14">
-        <f t="shared" si="9"/>
-        <v>1.6764483018598231E-2</v>
+        <f t="shared" si="10"/>
+        <v>-2.6344187600654045E-2</v>
       </c>
       <c r="AC51" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>converged</v>
       </c>
       <c r="AD51" s="1">
         <f t="shared" si="4"/>
-        <v>-1.1966471033962804</v>
+        <v>-0.59473116247986935</v>
       </c>
     </row>
     <row r="52" spans="2:44" x14ac:dyDescent="0.25">
@@ -18091,60 +18171,62 @@
       </c>
       <c r="I52" s="2">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K52" s="7">
         <f t="shared" si="22"/>
-        <v>8.3822415092991162E-4</v>
+        <v>-1.3172093800327023E-3</v>
       </c>
       <c r="L52" s="33">
-        <f t="shared" si="16"/>
-        <v>-0.3941324309434906</v>
+        <f t="shared" si="12"/>
+        <v>-1.1907795343397714</v>
       </c>
       <c r="M52" s="51">
-        <f t="shared" si="17"/>
-        <v>-0.1970662154717453</v>
+        <f t="shared" si="18"/>
+        <v>0.40461023283011432</v>
       </c>
       <c r="N52" s="1"/>
       <c r="O52" s="7">
-        <f t="shared" si="18"/>
-        <v>8.3822415092991162E-4</v>
+        <f t="shared" si="19"/>
+        <v>-1.3172093800327023E-3</v>
       </c>
       <c r="P52" s="33">
-        <f t="shared" si="19"/>
-        <v>0.6058675690565094</v>
+        <f t="shared" si="14"/>
+        <v>-0.19077953433977093</v>
       </c>
       <c r="Q52" s="51">
         <f t="shared" si="20"/>
-        <v>1.2117351381130188</v>
+        <v>0.61844093132045819</v>
       </c>
       <c r="S52" s="52">
         <f t="shared" si="21"/>
-        <v>1.0146689226412735</v>
+        <v>1.0230511641505724</v>
       </c>
       <c r="T52" s="14">
         <f t="shared" si="3"/>
-        <v>1.0146689226412735</v>
+        <v>1.0230511641505724</v>
       </c>
       <c r="U52" s="1"/>
       <c r="V52" s="9">
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="W52" s="1"/>
       <c r="X52" s="46">
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="Y52" s="53">
-        <f t="shared" si="8"/>
-        <v>1.4668922641273507E-2</v>
+        <f t="shared" si="9"/>
+        <v>-2.3051164150572401E-2</v>
       </c>
       <c r="Z52" s="1"/>
       <c r="AA52" s="14">
-        <f t="shared" si="9"/>
-        <v>1.4668922641273507E-2</v>
+        <f t="shared" si="10"/>
+        <v>-2.3051164150572401E-2</v>
       </c>
       <c r="AC52" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>converged</v>
       </c>
     </row>
@@ -18162,69 +18244,71 @@
       </c>
       <c r="I53" s="2">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K53" s="7">
         <f t="shared" si="22"/>
-        <v>7.3344613206367544E-4</v>
+        <v>-1.1525582075286201E-3</v>
       </c>
       <c r="L53" s="7">
-        <f t="shared" ref="L53:L68" si="24">L52-K53</f>
-        <v>-0.39486587707555426</v>
+        <f t="shared" si="12"/>
+        <v>-1.1919320925473</v>
       </c>
       <c r="M53" s="7">
-        <f t="shared" ref="M53:M68" si="25">F53*L53+I53</f>
-        <v>-0.19743293853777713</v>
+        <f t="shared" ref="M53:M68" si="24">F53*L53+I53</f>
+        <v>0.40403395372634998</v>
       </c>
       <c r="N53" s="1"/>
       <c r="O53" s="7">
-        <f t="shared" ref="O53:O68" si="26">B$4*AA52</f>
-        <v>7.3344613206367544E-4</v>
+        <f t="shared" ref="O53:O68" si="25">B$4*AA52</f>
+        <v>-1.1525582075286201E-3</v>
       </c>
       <c r="P53" s="7">
-        <f t="shared" ref="P53:P68" si="27">P52-O53</f>
-        <v>0.60513412292444568</v>
+        <f t="shared" si="14"/>
+        <v>-0.19193209254729957</v>
       </c>
       <c r="Q53" s="7">
-        <f t="shared" ref="Q53:Q68" si="28">G53*P53+I53</f>
-        <v>1.2102682458488914</v>
+        <f t="shared" ref="Q53:Q68" si="26">G53*P53+I53</f>
+        <v>0.61613581490540081</v>
       </c>
       <c r="S53" s="7">
-        <f t="shared" ref="S53:S68" si="29">(M53+Q53)</f>
-        <v>1.0128353073111143</v>
+        <f t="shared" ref="S53:S68" si="27">(M53+Q53)</f>
+        <v>1.0201697686317508</v>
       </c>
       <c r="T53" s="14">
         <f t="shared" si="3"/>
-        <v>1.0128353073111143</v>
+        <v>1.0201697686317508</v>
       </c>
       <c r="U53" s="1"/>
       <c r="V53" s="9">
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="W53" s="1"/>
       <c r="X53" s="46">
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="Y53" s="53">
-        <f t="shared" si="8"/>
-        <v>1.2835307311114263E-2</v>
+        <f t="shared" si="9"/>
+        <v>-2.0169768631750795E-2</v>
       </c>
       <c r="Z53" s="1"/>
       <c r="AA53" s="14">
-        <f t="shared" si="9"/>
-        <v>1.2835307311114263E-2</v>
+        <f t="shared" si="10"/>
+        <v>-2.0169768631750795E-2</v>
       </c>
       <c r="AC53" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>converged</v>
       </c>
-      <c r="AN53" s="39" t="s">
+      <c r="AN53" s="68" t="s">
         <v>55</v>
       </c>
-      <c r="AO53" s="39"/>
-      <c r="AP53" s="39"/>
-      <c r="AQ53" s="39"/>
-      <c r="AR53" s="39"/>
+      <c r="AO53" s="68"/>
+      <c r="AP53" s="68"/>
+      <c r="AQ53" s="68"/>
+      <c r="AR53" s="68"/>
     </row>
     <row r="54" spans="2:44" x14ac:dyDescent="0.25">
       <c r="B54">
@@ -18240,69 +18324,71 @@
       </c>
       <c r="I54" s="2">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K54" s="7">
         <f t="shared" si="22"/>
-        <v>6.4176536555571317E-4</v>
+        <v>-1.0084884315875399E-3</v>
       </c>
       <c r="L54" s="7">
+        <f t="shared" si="12"/>
+        <v>-1.1929405809788876</v>
+      </c>
+      <c r="M54" s="7">
         <f t="shared" si="24"/>
-        <v>-0.39550764244110997</v>
-      </c>
-      <c r="M54" s="7">
-        <f t="shared" si="25"/>
-        <v>-0.19775382122055499</v>
+        <v>0.40352970951055622</v>
       </c>
       <c r="N54" s="1"/>
       <c r="O54" s="7">
+        <f t="shared" si="25"/>
+        <v>-1.0084884315875399E-3</v>
+      </c>
+      <c r="P54" s="7">
+        <f t="shared" si="14"/>
+        <v>-0.19294058097888711</v>
+      </c>
+      <c r="Q54" s="7">
         <f t="shared" si="26"/>
-        <v>6.4176536555571317E-4</v>
-      </c>
-      <c r="P54" s="7">
+        <v>0.61411883804222578</v>
+      </c>
+      <c r="S54" s="7">
         <f t="shared" si="27"/>
-        <v>0.60449235755888997</v>
-      </c>
-      <c r="Q54" s="7">
-        <f t="shared" si="28"/>
-        <v>1.2089847151177799</v>
-      </c>
-      <c r="S54" s="7">
-        <f t="shared" si="29"/>
-        <v>1.011230893897225</v>
+        <v>1.0176485475527821</v>
       </c>
       <c r="T54" s="14">
         <f t="shared" si="3"/>
-        <v>1.011230893897225</v>
+        <v>1.0176485475527821</v>
       </c>
       <c r="U54" s="1"/>
       <c r="V54" s="9">
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="W54" s="1"/>
       <c r="X54" s="46">
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="Y54" s="53">
-        <f t="shared" si="8"/>
-        <v>1.1230893897224981E-2</v>
+        <f t="shared" si="9"/>
+        <v>-1.7648547552782112E-2</v>
       </c>
       <c r="Z54" s="1"/>
       <c r="AA54" s="14">
-        <f t="shared" si="9"/>
-        <v>1.1230893897224981E-2</v>
+        <f t="shared" si="10"/>
+        <v>-1.7648547552782112E-2</v>
       </c>
       <c r="AC54" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>converged</v>
       </c>
-      <c r="AN54" s="39" t="s">
+      <c r="AN54" s="68" t="s">
         <v>61</v>
       </c>
-      <c r="AO54" s="39"/>
-      <c r="AP54" s="39"/>
-      <c r="AQ54" s="39"/>
-      <c r="AR54" s="39"/>
+      <c r="AO54" s="68"/>
+      <c r="AP54" s="68"/>
+      <c r="AQ54" s="68"/>
+      <c r="AR54" s="68"/>
     </row>
     <row r="55" spans="2:44" x14ac:dyDescent="0.25">
       <c r="B55">
@@ -18318,60 +18404,62 @@
       </c>
       <c r="I55" s="2">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K55" s="7">
         <f t="shared" si="22"/>
-        <v>5.6154469486124903E-4</v>
+        <v>-8.8242737763910561E-4</v>
       </c>
       <c r="L55" s="7">
+        <f t="shared" si="12"/>
+        <v>-1.1938230083565267</v>
+      </c>
+      <c r="M55" s="7">
         <f t="shared" si="24"/>
-        <v>-0.39606918713597122</v>
-      </c>
-      <c r="M55" s="7">
-        <f t="shared" si="25"/>
-        <v>-0.19803459356798561</v>
+        <v>0.40308849582173667</v>
       </c>
       <c r="N55" s="1"/>
       <c r="O55" s="7">
+        <f t="shared" si="25"/>
+        <v>-8.8242737763910561E-4</v>
+      </c>
+      <c r="P55" s="7">
+        <f t="shared" si="14"/>
+        <v>-0.19382300835652622</v>
+      </c>
+      <c r="Q55" s="7">
         <f t="shared" si="26"/>
-        <v>5.6154469486124903E-4</v>
-      </c>
-      <c r="P55" s="7">
+        <v>0.61235398328694757</v>
+      </c>
+      <c r="S55" s="7">
         <f t="shared" si="27"/>
-        <v>0.60393081286402872</v>
-      </c>
-      <c r="Q55" s="7">
-        <f t="shared" si="28"/>
-        <v>1.2078616257280574</v>
-      </c>
-      <c r="S55" s="7">
-        <f t="shared" si="29"/>
-        <v>1.0098270321600717</v>
+        <v>1.0154424791086842</v>
       </c>
       <c r="T55" s="14">
         <f t="shared" si="3"/>
-        <v>1.0098270321600717</v>
+        <v>1.0154424791086842</v>
       </c>
       <c r="U55" s="1"/>
       <c r="V55" s="9">
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="W55" s="1"/>
       <c r="X55" s="46">
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="Y55" s="53">
-        <f t="shared" si="8"/>
-        <v>9.827032160071747E-3</v>
+        <f t="shared" si="9"/>
+        <v>-1.5442479108684237E-2</v>
       </c>
       <c r="Z55" s="1"/>
       <c r="AA55" s="14">
-        <f t="shared" si="9"/>
-        <v>9.827032160071747E-3</v>
+        <f t="shared" si="10"/>
+        <v>-1.5442479108684237E-2</v>
       </c>
       <c r="AC55" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>converged</v>
       </c>
     </row>
@@ -18386,60 +18474,62 @@
       </c>
       <c r="I56" s="2">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K56" s="7">
         <f t="shared" si="22"/>
-        <v>4.9135160800358737E-4</v>
+        <v>-7.7212395543421188E-4</v>
       </c>
       <c r="L56" s="7">
+        <f t="shared" si="12"/>
+        <v>-1.1945951323119608</v>
+      </c>
+      <c r="M56" s="7">
         <f t="shared" si="24"/>
-        <v>-0.39656053874397479</v>
-      </c>
-      <c r="M56" s="7">
-        <f t="shared" si="25"/>
-        <v>-0.19828026937198739</v>
+        <v>0.4027024338440196</v>
       </c>
       <c r="N56" s="1"/>
       <c r="O56" s="7">
+        <f t="shared" si="25"/>
+        <v>-7.7212395543421188E-4</v>
+      </c>
+      <c r="P56" s="7">
+        <f t="shared" si="14"/>
+        <v>-0.19459513231196043</v>
+      </c>
+      <c r="Q56" s="7">
         <f t="shared" si="26"/>
-        <v>4.9135160800358737E-4</v>
-      </c>
-      <c r="P56" s="7">
+        <v>0.61080973537607908</v>
+      </c>
+      <c r="S56" s="7">
         <f t="shared" si="27"/>
-        <v>0.6034394612560251</v>
-      </c>
-      <c r="Q56" s="7">
-        <f t="shared" si="28"/>
-        <v>1.2068789225120502</v>
-      </c>
-      <c r="S56" s="7">
-        <f t="shared" si="29"/>
-        <v>1.0085986531400628</v>
+        <v>1.0135121692200988</v>
       </c>
       <c r="T56" s="14">
         <f t="shared" si="3"/>
-        <v>1.0085986531400628</v>
+        <v>1.0135121692200988</v>
       </c>
       <c r="U56" s="1"/>
       <c r="V56" s="9">
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="W56" s="1"/>
       <c r="X56" s="46">
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="Y56" s="53">
-        <f t="shared" si="8"/>
-        <v>8.5986531400628063E-3</v>
+        <f t="shared" si="9"/>
+        <v>-1.3512169220098791E-2</v>
       </c>
       <c r="Z56" s="1"/>
       <c r="AA56" s="14">
-        <f t="shared" si="9"/>
-        <v>8.5986531400628063E-3</v>
+        <f t="shared" si="10"/>
+        <v>-1.3512169220098791E-2</v>
       </c>
       <c r="AC56" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>converged</v>
       </c>
     </row>
@@ -18454,60 +18544,62 @@
       </c>
       <c r="I57" s="2">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K57" s="7">
         <f t="shared" si="22"/>
-        <v>4.2993265700314032E-4</v>
+        <v>-6.7560846100493959E-4</v>
       </c>
       <c r="L57" s="7">
+        <f t="shared" si="12"/>
+        <v>-1.1952707407729657</v>
+      </c>
+      <c r="M57" s="7">
         <f t="shared" si="24"/>
-        <v>-0.39699047140097793</v>
-      </c>
-      <c r="M57" s="7">
-        <f t="shared" si="25"/>
-        <v>-0.19849523570048896</v>
+        <v>0.40236462961351716</v>
       </c>
       <c r="N57" s="1"/>
       <c r="O57" s="7">
+        <f t="shared" si="25"/>
+        <v>-6.7560846100493959E-4</v>
+      </c>
+      <c r="P57" s="7">
+        <f t="shared" si="14"/>
+        <v>-0.19527074077296538</v>
+      </c>
+      <c r="Q57" s="7">
         <f t="shared" si="26"/>
-        <v>4.2993265700314032E-4</v>
-      </c>
-      <c r="P57" s="7">
+        <v>0.60945851845406929</v>
+      </c>
+      <c r="S57" s="7">
         <f t="shared" si="27"/>
-        <v>0.60300952859902202</v>
-      </c>
-      <c r="Q57" s="7">
-        <f t="shared" si="28"/>
-        <v>1.206019057198044</v>
-      </c>
-      <c r="S57" s="7">
-        <f t="shared" si="29"/>
-        <v>1.007523821497555</v>
+        <v>1.0118231480675863</v>
       </c>
       <c r="T57" s="14">
         <f t="shared" si="3"/>
-        <v>1.007523821497555</v>
+        <v>1.0118231480675863</v>
       </c>
       <c r="U57" s="1"/>
       <c r="V57" s="9">
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="W57" s="1"/>
       <c r="X57" s="46">
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="Y57" s="53">
-        <f t="shared" si="8"/>
-        <v>7.5238214975550388E-3</v>
+        <f t="shared" si="9"/>
+        <v>-1.1823148067586331E-2</v>
       </c>
       <c r="Z57" s="1"/>
       <c r="AA57" s="14">
-        <f t="shared" si="9"/>
-        <v>7.5238214975550388E-3</v>
+        <f t="shared" si="10"/>
+        <v>-1.1823148067586331E-2</v>
       </c>
       <c r="AC57" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>converged</v>
       </c>
     </row>
@@ -18522,60 +18614,62 @@
       </c>
       <c r="I58" s="2">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K58" s="7">
         <f t="shared" si="22"/>
-        <v>3.7619107487775195E-4</v>
+        <v>-5.9115740337931664E-4</v>
       </c>
       <c r="L58" s="7">
+        <f t="shared" si="12"/>
+        <v>-1.1958618981763449</v>
+      </c>
+      <c r="M58" s="7">
         <f t="shared" si="24"/>
-        <v>-0.39736666247585567</v>
-      </c>
-      <c r="M58" s="7">
-        <f t="shared" si="25"/>
-        <v>-0.19868333123792783</v>
+        <v>0.40206905091182754</v>
       </c>
       <c r="N58" s="1"/>
       <c r="O58" s="7">
+        <f t="shared" si="25"/>
+        <v>-5.9115740337931664E-4</v>
+      </c>
+      <c r="P58" s="7">
+        <f t="shared" si="14"/>
+        <v>-0.1958618981763447</v>
+      </c>
+      <c r="Q58" s="7">
         <f t="shared" si="26"/>
-        <v>3.7619107487775195E-4</v>
-      </c>
-      <c r="P58" s="7">
+        <v>0.60827620364731061</v>
+      </c>
+      <c r="S58" s="7">
         <f t="shared" si="27"/>
-        <v>0.60263333752414427</v>
-      </c>
-      <c r="Q58" s="7">
-        <f t="shared" si="28"/>
-        <v>1.2052666750482885</v>
-      </c>
-      <c r="S58" s="7">
-        <f t="shared" si="29"/>
-        <v>1.0065833438103606</v>
+        <v>1.0103452545591383</v>
       </c>
       <c r="T58" s="14">
         <f t="shared" si="3"/>
-        <v>1.0065833438103606</v>
+        <v>1.0103452545591383</v>
       </c>
       <c r="U58" s="1"/>
       <c r="V58" s="9">
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="W58" s="1"/>
       <c r="X58" s="46">
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="Y58" s="53">
-        <f t="shared" si="8"/>
-        <v>6.5833438103606312E-3</v>
+        <f t="shared" si="9"/>
+        <v>-1.0345254559138262E-2</v>
       </c>
       <c r="Z58" s="1"/>
       <c r="AA58" s="14">
-        <f t="shared" si="9"/>
-        <v>6.5833438103606312E-3</v>
+        <f t="shared" si="10"/>
+        <v>-1.0345254559138262E-2</v>
       </c>
       <c r="AC58" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>converged</v>
       </c>
     </row>
@@ -18590,60 +18684,62 @@
       </c>
       <c r="I59" s="2">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K59" s="7">
         <f t="shared" si="22"/>
-        <v>3.2916719051803158E-4</v>
+        <v>-5.1726272795691306E-4</v>
       </c>
       <c r="L59" s="7">
+        <f t="shared" si="12"/>
+        <v>-1.1963791609043017</v>
+      </c>
+      <c r="M59" s="7">
         <f t="shared" si="24"/>
-        <v>-0.39769582966637368</v>
-      </c>
-      <c r="M59" s="7">
-        <f t="shared" si="25"/>
-        <v>-0.19884791483318684</v>
+        <v>0.40181041954784913</v>
       </c>
       <c r="N59" s="1"/>
       <c r="O59" s="7">
-        <f t="shared" si="26"/>
-        <v>3.2916719051803158E-4</v>
+        <f t="shared" si="25"/>
+        <v>-5.1726272795691306E-4</v>
       </c>
       <c r="P59" s="7">
-        <f t="shared" ref="P59:P65" si="30">P58-O59</f>
-        <v>0.60230417033362627</v>
+        <f t="shared" si="14"/>
+        <v>-0.1963791609043016</v>
       </c>
       <c r="Q59" s="7">
-        <f t="shared" ref="Q59:Q65" si="31">G59*P59+I59</f>
-        <v>1.2046083406672525</v>
+        <f t="shared" ref="Q59:Q65" si="28">G59*P59+I59</f>
+        <v>0.60724167819139674</v>
       </c>
       <c r="S59" s="7">
-        <f t="shared" ref="S59:S65" si="32">(M59+Q59)</f>
-        <v>1.0057604258340658</v>
+        <f t="shared" ref="S59:S65" si="29">(M59+Q59)</f>
+        <v>1.0090520977392459</v>
       </c>
       <c r="T59" s="14">
         <f t="shared" si="3"/>
-        <v>1.0057604258340658</v>
+        <v>1.0090520977392459</v>
       </c>
       <c r="U59" s="1"/>
       <c r="V59" s="9">
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="W59" s="1"/>
       <c r="X59" s="46">
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="Y59" s="53">
-        <f t="shared" si="8"/>
-        <v>5.7604258340657744E-3</v>
+        <f t="shared" si="9"/>
+        <v>-9.0520977392458679E-3</v>
       </c>
       <c r="Z59" s="1"/>
       <c r="AA59" s="14">
-        <f t="shared" si="9"/>
-        <v>5.7604258340657744E-3</v>
+        <f t="shared" si="10"/>
+        <v>-9.0520977392458679E-3</v>
       </c>
       <c r="AC59" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>converged</v>
       </c>
     </row>
@@ -18658,60 +18754,62 @@
       </c>
       <c r="I60" s="2">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K60" s="7">
         <f t="shared" si="22"/>
-        <v>2.8802129170328871E-4</v>
+        <v>-4.5260488696229344E-4</v>
       </c>
       <c r="L60" s="7">
+        <f t="shared" si="12"/>
+        <v>-1.1968317657912639</v>
+      </c>
+      <c r="M60" s="7">
         <f t="shared" si="24"/>
-        <v>-0.39798385095807698</v>
-      </c>
-      <c r="M60" s="7">
-        <f t="shared" si="25"/>
-        <v>-0.19899192547903849</v>
+        <v>0.40158411710436803</v>
       </c>
       <c r="N60" s="1"/>
       <c r="O60" s="7">
-        <f t="shared" si="26"/>
-        <v>2.8802129170328871E-4</v>
+        <f t="shared" si="25"/>
+        <v>-4.5260488696229344E-4</v>
       </c>
       <c r="P60" s="7">
-        <f t="shared" si="30"/>
-        <v>0.60201614904192302</v>
+        <f t="shared" si="14"/>
+        <v>-0.19683176579126391</v>
       </c>
       <c r="Q60" s="7">
-        <f t="shared" si="31"/>
-        <v>1.204032298083846</v>
+        <f t="shared" si="28"/>
+        <v>0.60633646841747213</v>
       </c>
       <c r="S60" s="7">
-        <f t="shared" si="32"/>
-        <v>1.0050403726048076</v>
+        <f t="shared" si="29"/>
+        <v>1.0079205855218403</v>
       </c>
       <c r="T60" s="14">
         <f t="shared" si="3"/>
-        <v>1.0050403726048076</v>
+        <v>1.0079205855218403</v>
       </c>
       <c r="U60" s="1"/>
       <c r="V60" s="9">
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="W60" s="1"/>
       <c r="X60" s="46">
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="Y60" s="53">
-        <f t="shared" si="8"/>
-        <v>5.0403726048076081E-3</v>
+        <f t="shared" si="9"/>
+        <v>-7.9205855218402732E-3</v>
       </c>
       <c r="Z60" s="1"/>
       <c r="AA60" s="14">
-        <f t="shared" si="9"/>
-        <v>5.0403726048076081E-3</v>
+        <f t="shared" si="10"/>
+        <v>-7.9205855218402732E-3</v>
       </c>
       <c r="AC60" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>converged</v>
       </c>
     </row>
@@ -18726,60 +18824,62 @@
       </c>
       <c r="I61" s="2">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K61" s="7">
         <f t="shared" si="22"/>
-        <v>2.520186302403804E-4</v>
+        <v>-3.9602927609201367E-4</v>
       </c>
       <c r="L61" s="7">
+        <f t="shared" si="12"/>
+        <v>-1.197227795067356</v>
+      </c>
+      <c r="M61" s="7">
         <f t="shared" si="24"/>
-        <v>-0.39823586958831736</v>
-      </c>
-      <c r="M61" s="7">
-        <f t="shared" si="25"/>
-        <v>-0.19911793479415868</v>
+        <v>0.401386102466322</v>
       </c>
       <c r="N61" s="1"/>
       <c r="O61" s="7">
-        <f t="shared" si="26"/>
-        <v>2.520186302403804E-4</v>
+        <f t="shared" si="25"/>
+        <v>-3.9602927609201367E-4</v>
       </c>
       <c r="P61" s="7">
-        <f t="shared" si="30"/>
-        <v>0.60176413041168264</v>
+        <f t="shared" si="14"/>
+        <v>-0.19722779506735591</v>
       </c>
       <c r="Q61" s="7">
-        <f t="shared" si="31"/>
-        <v>1.2035282608233653</v>
+        <f t="shared" si="28"/>
+        <v>0.60554440986528824</v>
       </c>
       <c r="S61" s="7">
-        <f t="shared" si="32"/>
-        <v>1.0044103260292065</v>
+        <f t="shared" si="29"/>
+        <v>1.0069305123316101</v>
       </c>
       <c r="T61" s="14">
         <f t="shared" si="3"/>
-        <v>1.0044103260292065</v>
+        <v>1.0069305123316101</v>
       </c>
       <c r="U61" s="1"/>
       <c r="V61" s="9">
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="W61" s="1"/>
       <c r="X61" s="46">
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="Y61" s="53">
-        <f t="shared" si="8"/>
-        <v>4.410326029206546E-3</v>
+        <f t="shared" si="9"/>
+        <v>-6.930512331610128E-3</v>
       </c>
       <c r="Z61" s="1"/>
       <c r="AA61" s="14">
-        <f t="shared" si="9"/>
-        <v>4.410326029206546E-3</v>
+        <f t="shared" si="10"/>
+        <v>-6.930512331610128E-3</v>
       </c>
       <c r="AC61" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>converged</v>
       </c>
     </row>
@@ -18794,60 +18894,62 @@
       </c>
       <c r="I62" s="2">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K62" s="7">
         <f t="shared" si="22"/>
-        <v>2.2051630146032732E-4</v>
+        <v>-3.4652561658050641E-4</v>
       </c>
       <c r="L62" s="7">
+        <f t="shared" si="12"/>
+        <v>-1.1975743206839364</v>
+      </c>
+      <c r="M62" s="7">
         <f t="shared" si="24"/>
-        <v>-0.39845638588977766</v>
-      </c>
-      <c r="M62" s="7">
-        <f t="shared" si="25"/>
-        <v>-0.19922819294488883</v>
+        <v>0.40121283965803178</v>
       </c>
       <c r="N62" s="1"/>
       <c r="O62" s="7">
-        <f t="shared" si="26"/>
-        <v>2.2051630146032732E-4</v>
+        <f t="shared" si="25"/>
+        <v>-3.4652561658050641E-4</v>
       </c>
       <c r="P62" s="7">
-        <f t="shared" si="30"/>
-        <v>0.60154361411022228</v>
+        <f t="shared" si="14"/>
+        <v>-0.19757432068393641</v>
       </c>
       <c r="Q62" s="7">
-        <f t="shared" si="31"/>
-        <v>1.2030872282204446</v>
+        <f t="shared" si="28"/>
+        <v>0.60485135863212713</v>
       </c>
       <c r="S62" s="7">
-        <f t="shared" si="32"/>
-        <v>1.0038590352755556</v>
+        <f t="shared" si="29"/>
+        <v>1.0060641982901588</v>
       </c>
       <c r="T62" s="14">
         <f t="shared" si="3"/>
-        <v>1.0038590352755556</v>
+        <v>1.0060641982901588</v>
       </c>
       <c r="U62" s="1"/>
       <c r="V62" s="9">
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="W62" s="1"/>
       <c r="X62" s="46">
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="Y62" s="53">
-        <f t="shared" si="8"/>
-        <v>3.8590352755556445E-3</v>
+        <f t="shared" si="9"/>
+        <v>-6.0641982901588065E-3</v>
       </c>
       <c r="Z62" s="1"/>
       <c r="AA62" s="14">
-        <f t="shared" si="9"/>
-        <v>3.8590352755556445E-3</v>
+        <f t="shared" si="10"/>
+        <v>-6.0641982901588065E-3</v>
       </c>
       <c r="AC62" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>converged</v>
       </c>
     </row>
@@ -18862,60 +18964,62 @@
       </c>
       <c r="I63" s="2">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K63" s="7">
         <f t="shared" si="22"/>
-        <v>1.9295176377778225E-4</v>
+        <v>-3.0320991450794033E-4</v>
       </c>
       <c r="L63" s="7">
+        <f t="shared" si="12"/>
+        <v>-1.1978775305984444</v>
+      </c>
+      <c r="M63" s="7">
         <f t="shared" si="24"/>
-        <v>-0.39864933765355542</v>
-      </c>
-      <c r="M63" s="7">
-        <f t="shared" si="25"/>
-        <v>-0.19932466882677771</v>
+        <v>0.40106123470077781</v>
       </c>
       <c r="N63" s="1"/>
       <c r="O63" s="7">
-        <f t="shared" si="26"/>
-        <v>1.9295176377778225E-4</v>
+        <f t="shared" si="25"/>
+        <v>-3.0320991450794033E-4</v>
       </c>
       <c r="P63" s="7">
-        <f t="shared" si="30"/>
-        <v>0.60135066234644452</v>
+        <f t="shared" si="14"/>
+        <v>-0.19787753059844435</v>
       </c>
       <c r="Q63" s="7">
-        <f t="shared" si="31"/>
-        <v>1.202701324692889</v>
+        <f t="shared" si="28"/>
+        <v>0.60424493880311125</v>
       </c>
       <c r="S63" s="7">
-        <f t="shared" si="32"/>
-        <v>1.0033766558661112</v>
+        <f t="shared" si="29"/>
+        <v>1.0053061735038891</v>
       </c>
       <c r="T63" s="14">
         <f t="shared" si="3"/>
-        <v>1.0033766558661112</v>
+        <v>1.0053061735038891</v>
       </c>
       <c r="U63" s="1"/>
       <c r="V63" s="9">
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="W63" s="1"/>
       <c r="X63" s="46">
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="Y63" s="53">
-        <f t="shared" si="8"/>
-        <v>3.3766558661112445E-3</v>
+        <f t="shared" si="9"/>
+        <v>-5.3061735038890667E-3</v>
       </c>
       <c r="Z63" s="1"/>
       <c r="AA63" s="14">
-        <f t="shared" si="9"/>
-        <v>3.3766558661112445E-3</v>
+        <f t="shared" si="10"/>
+        <v>-5.3061735038890667E-3</v>
       </c>
       <c r="AC63" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>converged</v>
       </c>
     </row>
@@ -18930,60 +19034,62 @@
       </c>
       <c r="I64" s="2">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K64" s="7">
         <f t="shared" si="22"/>
-        <v>1.6883279330556224E-4</v>
+        <v>-2.6530867519445337E-4</v>
       </c>
       <c r="L64" s="7">
+        <f t="shared" si="12"/>
+        <v>-1.1981428392736388</v>
+      </c>
+      <c r="M64" s="7">
         <f t="shared" si="24"/>
-        <v>-0.39881817044686096</v>
-      </c>
-      <c r="M64" s="7">
-        <f t="shared" si="25"/>
-        <v>-0.19940908522343048</v>
+        <v>0.40092858036318058</v>
       </c>
       <c r="N64" s="1"/>
       <c r="O64" s="7">
-        <f t="shared" si="26"/>
-        <v>1.6883279330556224E-4</v>
+        <f t="shared" si="25"/>
+        <v>-2.6530867519445337E-4</v>
       </c>
       <c r="P64" s="7">
-        <f t="shared" si="30"/>
-        <v>0.60118182955313892</v>
+        <f t="shared" si="14"/>
+        <v>-0.19814283927363879</v>
       </c>
       <c r="Q64" s="7">
-        <f t="shared" si="31"/>
-        <v>1.2023636591062778</v>
+        <f t="shared" si="28"/>
+        <v>0.60371432145272241</v>
       </c>
       <c r="S64" s="7">
-        <f t="shared" si="32"/>
-        <v>1.0029545738828474</v>
+        <f t="shared" si="29"/>
+        <v>1.0046429018159029</v>
       </c>
       <c r="T64" s="14">
         <f t="shared" si="3"/>
-        <v>1.0029545738828474</v>
+        <v>1.0046429018159029</v>
       </c>
       <c r="U64" s="1"/>
       <c r="V64" s="9">
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="W64" s="1"/>
       <c r="X64" s="46">
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="Y64" s="53">
-        <f t="shared" si="8"/>
-        <v>2.9545738828473667E-3</v>
+        <f t="shared" si="9"/>
+        <v>-4.6429018159028779E-3</v>
       </c>
       <c r="Z64" s="1"/>
       <c r="AA64" s="14">
-        <f t="shared" si="9"/>
-        <v>2.9545738828473667E-3</v>
+        <f t="shared" si="10"/>
+        <v>-4.6429018159028779E-3</v>
       </c>
       <c r="AC64" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>converged</v>
       </c>
     </row>
@@ -18998,60 +19104,62 @@
       </c>
       <c r="I65" s="2">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K65" s="7">
         <f t="shared" si="22"/>
-        <v>1.4772869414236833E-4</v>
+        <v>-2.321450907951439E-4</v>
       </c>
       <c r="L65" s="7">
+        <f t="shared" si="12"/>
+        <v>-1.198374984364434</v>
+      </c>
+      <c r="M65" s="7">
         <f t="shared" si="24"/>
-        <v>-0.39896589914100333</v>
-      </c>
-      <c r="M65" s="7">
-        <f t="shared" si="25"/>
-        <v>-0.19948294957050167</v>
+        <v>0.40081250781778299</v>
       </c>
       <c r="N65" s="1"/>
       <c r="O65" s="7">
-        <f t="shared" si="26"/>
-        <v>1.4772869414236833E-4</v>
+        <f t="shared" si="25"/>
+        <v>-2.321450907951439E-4</v>
       </c>
       <c r="P65" s="7">
-        <f t="shared" si="30"/>
-        <v>0.60103410085899656</v>
+        <f t="shared" si="14"/>
+        <v>-0.19837498436443393</v>
       </c>
       <c r="Q65" s="7">
-        <f t="shared" si="31"/>
-        <v>1.2020682017179931</v>
+        <f t="shared" si="28"/>
+        <v>0.60325003127113219</v>
       </c>
       <c r="S65" s="7">
-        <f t="shared" si="32"/>
-        <v>1.0025852521474914</v>
+        <f t="shared" si="29"/>
+        <v>1.0040625390889151</v>
       </c>
       <c r="T65" s="14">
         <f t="shared" si="3"/>
-        <v>1.0025852521474914</v>
+        <v>1.0040625390889151</v>
       </c>
       <c r="U65" s="1"/>
       <c r="V65" s="9">
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="W65" s="1"/>
       <c r="X65" s="46">
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="Y65" s="53">
-        <f t="shared" si="8"/>
-        <v>2.5852521474913903E-3</v>
+        <f t="shared" si="9"/>
+        <v>-4.0625390889150736E-3</v>
       </c>
       <c r="Z65" s="1"/>
       <c r="AA65" s="14">
-        <f t="shared" si="9"/>
-        <v>2.5852521474913903E-3</v>
+        <f t="shared" si="10"/>
+        <v>-4.0625390889150736E-3</v>
       </c>
       <c r="AC65" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>converged</v>
       </c>
     </row>
@@ -19066,60 +19174,62 @@
       </c>
       <c r="I66" s="2">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K66" s="7">
         <f t="shared" si="22"/>
-        <v>1.2926260737456953E-4</v>
+        <v>-2.0312695444575369E-4</v>
       </c>
       <c r="L66" s="7">
+        <f t="shared" si="12"/>
+        <v>-1.1985781113188798</v>
+      </c>
+      <c r="M66" s="7">
         <f t="shared" si="24"/>
-        <v>-0.39909516174837789</v>
-      </c>
-      <c r="M66" s="7">
-        <f t="shared" si="25"/>
-        <v>-0.19954758087418895</v>
+        <v>0.40071094434056009</v>
       </c>
       <c r="N66" s="1"/>
       <c r="O66" s="7">
+        <f t="shared" si="25"/>
+        <v>-2.0312695444575369E-4</v>
+      </c>
+      <c r="P66" s="7">
+        <f t="shared" si="14"/>
+        <v>-0.19857811131887967</v>
+      </c>
+      <c r="Q66" s="7">
         <f t="shared" si="26"/>
-        <v>1.2926260737456953E-4</v>
-      </c>
-      <c r="P66" s="7">
+        <v>0.6028437773622406</v>
+      </c>
+      <c r="S66" s="7">
         <f t="shared" si="27"/>
-        <v>0.600904838251622</v>
-      </c>
-      <c r="Q66" s="7">
-        <f t="shared" si="28"/>
-        <v>1.201809676503244</v>
-      </c>
-      <c r="S66" s="7">
-        <f t="shared" si="29"/>
-        <v>1.0022620956290551</v>
+        <v>1.0035547217028007</v>
       </c>
       <c r="T66" s="14">
         <f t="shared" si="3"/>
-        <v>1.0022620956290551</v>
+        <v>1.0035547217028007</v>
       </c>
       <c r="U66" s="1"/>
       <c r="V66" s="9">
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="W66" s="1"/>
       <c r="X66" s="46">
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="Y66" s="53">
-        <f t="shared" si="8"/>
-        <v>2.2620956290551053E-3</v>
+        <f t="shared" si="9"/>
+        <v>-3.5547217028006894E-3</v>
       </c>
       <c r="Z66" s="1"/>
       <c r="AA66" s="14">
-        <f t="shared" si="9"/>
-        <v>2.2620956290551053E-3</v>
+        <f t="shared" si="10"/>
+        <v>-3.5547217028006894E-3</v>
       </c>
       <c r="AC66" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>converged</v>
       </c>
     </row>
@@ -19134,60 +19244,62 @@
       </c>
       <c r="I67" s="2">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K67" s="7">
         <f t="shared" si="22"/>
-        <v>1.1310478145275527E-4</v>
+        <v>-1.7773608514003449E-4</v>
       </c>
       <c r="L67" s="7">
+        <f t="shared" si="12"/>
+        <v>-1.1987558474040199</v>
+      </c>
+      <c r="M67" s="7">
         <f t="shared" si="24"/>
-        <v>-0.39920826652983066</v>
-      </c>
-      <c r="M67" s="7">
-        <f t="shared" si="25"/>
-        <v>-0.19960413326491533</v>
+        <v>0.40062207629799007</v>
       </c>
       <c r="N67" s="1"/>
       <c r="O67" s="7">
+        <f t="shared" si="25"/>
+        <v>-1.7773608514003449E-4</v>
+      </c>
+      <c r="P67" s="7">
+        <f t="shared" si="14"/>
+        <v>-0.19875584740401972</v>
+      </c>
+      <c r="Q67" s="7">
         <f t="shared" si="26"/>
-        <v>1.1310478145275527E-4</v>
-      </c>
-      <c r="P67" s="7">
+        <v>0.6024883051919605</v>
+      </c>
+      <c r="S67" s="7">
         <f t="shared" si="27"/>
-        <v>0.60079173347016923</v>
-      </c>
-      <c r="Q67" s="7">
-        <f t="shared" si="28"/>
-        <v>1.2015834669403385</v>
-      </c>
-      <c r="S67" s="7">
-        <f t="shared" si="29"/>
-        <v>1.0019793336754232</v>
+        <v>1.0031103814899507</v>
       </c>
       <c r="T67" s="14">
         <f t="shared" si="3"/>
-        <v>1.0019793336754232</v>
+        <v>1.0031103814899507</v>
       </c>
       <c r="U67" s="1"/>
       <c r="V67" s="9">
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="W67" s="1"/>
       <c r="X67" s="46">
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="Y67" s="53">
-        <f t="shared" si="8"/>
-        <v>1.9793336754232449E-3</v>
+        <f t="shared" si="9"/>
+        <v>-3.1103814899506865E-3</v>
       </c>
       <c r="Z67" s="1"/>
       <c r="AA67" s="14">
-        <f t="shared" si="9"/>
-        <v>1.9793336754232449E-3</v>
+        <f t="shared" si="10"/>
+        <v>-3.1103814899506865E-3</v>
       </c>
       <c r="AC67" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>converged</v>
       </c>
     </row>
@@ -19202,60 +19314,62 @@
       </c>
       <c r="I68" s="2">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K68" s="7">
         <f t="shared" si="22"/>
-        <v>9.896668377116225E-5</v>
+        <v>-1.5551907449753435E-4</v>
       </c>
       <c r="L68" s="7">
+        <f t="shared" si="12"/>
+        <v>-1.1989113664785174</v>
+      </c>
+      <c r="M68" s="7">
         <f t="shared" si="24"/>
-        <v>-0.39930723321360184</v>
-      </c>
-      <c r="M68" s="7">
-        <f t="shared" si="25"/>
-        <v>-0.19965361660680092</v>
+        <v>0.40054431676074131</v>
       </c>
       <c r="N68" s="1"/>
       <c r="O68" s="7">
+        <f t="shared" si="25"/>
+        <v>-1.5551907449753435E-4</v>
+      </c>
+      <c r="P68" s="7">
+        <f t="shared" si="14"/>
+        <v>-0.19891136647851726</v>
+      </c>
+      <c r="Q68" s="7">
         <f t="shared" si="26"/>
-        <v>9.896668377116225E-5</v>
-      </c>
-      <c r="P68" s="7">
+        <v>0.60217726704296548</v>
+      </c>
+      <c r="S68" s="7">
         <f t="shared" si="27"/>
-        <v>0.60069276678639805</v>
-      </c>
-      <c r="Q68" s="7">
-        <f t="shared" si="28"/>
-        <v>1.2013855335727961</v>
-      </c>
-      <c r="S68" s="7">
-        <f t="shared" si="29"/>
-        <v>1.0017319169659951</v>
+        <v>1.0027215838037069</v>
       </c>
       <c r="T68" s="14">
         <f t="shared" si="3"/>
-        <v>1.0017319169659951</v>
+        <v>1.0027215838037069</v>
       </c>
       <c r="U68" s="1"/>
       <c r="V68" s="9">
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="W68" s="1"/>
       <c r="X68" s="46">
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="Y68" s="53">
-        <f t="shared" si="8"/>
-        <v>1.7319169659950617E-3</v>
+        <f t="shared" si="9"/>
+        <v>-2.7215838037069062E-3</v>
       </c>
       <c r="Z68" s="1"/>
       <c r="AA68" s="14">
-        <f t="shared" si="9"/>
-        <v>1.7319169659950617E-3</v>
+        <f t="shared" si="10"/>
+        <v>-2.7215838037069062E-3</v>
       </c>
       <c r="AC68" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>converged</v>
       </c>
     </row>
